--- a/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.539476493828676</v>
+        <v>2.539476493828559</v>
       </c>
       <c r="D2">
-        <v>9.872288876674464</v>
+        <v>9.872288876674498</v>
       </c>
       <c r="E2">
-        <v>17.69577361592364</v>
+        <v>17.69577361592361</v>
       </c>
       <c r="F2">
-        <v>68.92986720299716</v>
+        <v>68.92986720299722</v>
       </c>
       <c r="G2">
-        <v>55.84314590101679</v>
+        <v>55.84314590101683</v>
       </c>
       <c r="H2">
-        <v>52.46824124738117</v>
+        <v>52.46824124738121</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.90020505745287</v>
+        <v>14.90020505745286</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.39640979917859</v>
+        <v>2.396409799178498</v>
       </c>
       <c r="D3">
-        <v>9.024424522323514</v>
+        <v>9.024424522323546</v>
       </c>
       <c r="E3">
-        <v>16.1725007978448</v>
+        <v>16.17250079784493</v>
       </c>
       <c r="F3">
-        <v>63.15457294200036</v>
+        <v>63.15457294200091</v>
       </c>
       <c r="G3">
-        <v>51.13883833575462</v>
+        <v>51.13883833575505</v>
       </c>
       <c r="H3">
-        <v>48.04777928667555</v>
+        <v>48.04777928667598</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.64041584193622</v>
+        <v>13.64041584193628</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,28 +470,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.309800939935629</v>
+        <v>2.309800939935402</v>
       </c>
       <c r="D4">
-        <v>8.499485442648508</v>
+        <v>8.499485442648416</v>
       </c>
       <c r="E4">
-        <v>15.2295249195438</v>
+        <v>15.22952491954377</v>
       </c>
       <c r="F4">
-        <v>59.57300029948359</v>
+        <v>59.57300029948323</v>
       </c>
       <c r="G4">
-        <v>48.2199617090016</v>
+        <v>48.21996170900128</v>
       </c>
       <c r="H4">
-        <v>45.30456113555852</v>
+        <v>45.30456113555822</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.86055181592851</v>
+        <v>12.86055181592845</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,28 +499,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.274645640839157</v>
+        <v>2.274645640839024</v>
       </c>
       <c r="D5">
-        <v>8.283505003692895</v>
+        <v>8.283505003692804</v>
       </c>
       <c r="E5">
-        <v>14.84158049252302</v>
+        <v>14.841580492523</v>
       </c>
       <c r="F5">
-        <v>58.09893079473186</v>
+        <v>58.09893079473159</v>
       </c>
       <c r="G5">
-        <v>47.01818187274146</v>
+        <v>47.01818187274123</v>
       </c>
       <c r="H5">
-        <v>44.17499363413353</v>
+        <v>44.17499363413333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.53971294989181</v>
+        <v>12.53971294989176</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,28 +528,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.268812429998801</v>
+        <v>2.268812429998943</v>
       </c>
       <c r="D6">
-        <v>8.247493126041226</v>
+        <v>8.247493126041377</v>
       </c>
       <c r="E6">
-        <v>14.7768978851456</v>
+        <v>14.77689788514554</v>
       </c>
       <c r="F6">
-        <v>57.85314811744059</v>
+        <v>57.85314811744093</v>
       </c>
       <c r="G6">
-        <v>46.81777013102228</v>
+        <v>46.81777013102261</v>
       </c>
       <c r="H6">
-        <v>43.9866175803143</v>
+        <v>43.98661758031458</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.48621900471668</v>
+        <v>12.4862190047167</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,28 +557,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.309326452174511</v>
+        <v>2.309326452174285</v>
       </c>
       <c r="D7">
-        <v>8.496582116149828</v>
+        <v>8.49658211614986</v>
       </c>
       <c r="E7">
         <v>15.22430982723446</v>
       </c>
       <c r="F7">
-        <v>59.55318570971188</v>
+        <v>59.55318570971213</v>
       </c>
       <c r="G7">
-        <v>48.20380921320735</v>
+        <v>48.20380921320754</v>
       </c>
       <c r="H7">
-        <v>45.28937965145478</v>
+        <v>45.28937965145497</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.85623881329204</v>
+        <v>12.85623881329203</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,28 +586,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.489768810591814</v>
+        <v>2.489768810591947</v>
       </c>
       <c r="D8">
-        <v>9.58017571162309</v>
+        <v>9.580175711623315</v>
       </c>
       <c r="E8">
         <v>17.1709362034587</v>
       </c>
       <c r="F8">
-        <v>66.94199110775243</v>
+        <v>66.9419911077529</v>
       </c>
       <c r="G8">
-        <v>54.2241614665899</v>
+        <v>54.22416146659032</v>
       </c>
       <c r="H8">
-        <v>50.94704033851324</v>
+        <v>50.9470403385136</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.46614879847239</v>
+        <v>14.46614879847245</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -615,28 +615,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.86552003782851</v>
+        <v>2.865520037828368</v>
       </c>
       <c r="D9">
-        <v>11.73512238086427</v>
+        <v>11.73512238086431</v>
       </c>
       <c r="E9">
-        <v>21.04334197112005</v>
+        <v>21.04334197112009</v>
       </c>
       <c r="F9">
-        <v>81.52979990318248</v>
+        <v>81.52979990318285</v>
       </c>
       <c r="G9">
-        <v>66.10256778264775</v>
+        <v>66.10256778264805</v>
       </c>
       <c r="H9">
-        <v>62.10575751339963</v>
+        <v>62.10575751339996</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.66881237344509</v>
+        <v>17.6688123734451</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -644,28 +644,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.186127498650208</v>
+        <v>3.186127498650365</v>
       </c>
       <c r="D10">
-        <v>13.49590783416957</v>
+        <v>13.49590783416955</v>
       </c>
       <c r="E10">
-        <v>24.20890085535989</v>
+        <v>24.20890085535997</v>
       </c>
       <c r="F10">
-        <v>93.24957236690355</v>
+        <v>93.24957236690368</v>
       </c>
       <c r="G10">
-        <v>75.64900623606425</v>
+        <v>75.64900623606435</v>
       </c>
       <c r="H10">
-        <v>71.06997122456906</v>
+        <v>71.06997122456914</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.28716061541234</v>
+        <v>20.28716061541243</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -673,28 +673,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.359116898877968</v>
+        <v>3.359116898878015</v>
       </c>
       <c r="D11">
-        <v>14.42219622825528</v>
+        <v>14.42219622825536</v>
       </c>
       <c r="E11">
-        <v>25.87526417375512</v>
+        <v>25.87526417375516</v>
       </c>
       <c r="F11">
-        <v>99.30860954952222</v>
+        <v>99.30860954952244</v>
       </c>
       <c r="G11">
-        <v>80.58890273432721</v>
+        <v>80.58890273432742</v>
       </c>
       <c r="H11">
-        <v>75.70708938769258</v>
+        <v>75.70708938769279</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.66567850718028</v>
+        <v>21.66567850718035</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.432385776078041</v>
+        <v>3.432385776078062</v>
       </c>
       <c r="D12">
-        <v>14.80992983311962</v>
+        <v>14.80992983311996</v>
       </c>
       <c r="E12">
-        <v>26.57316194009949</v>
+        <v>26.57316194009973</v>
       </c>
       <c r="F12">
-        <v>101.8181004880374</v>
+        <v>101.8181004880383</v>
       </c>
       <c r="G12">
-        <v>82.63621253389235</v>
+        <v>82.63621253389319</v>
       </c>
       <c r="H12">
-        <v>77.62857296883887</v>
+        <v>77.62857296883965</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.24308238399422</v>
+        <v>22.24308238399437</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.416141833549987</v>
+        <v>3.416141833550142</v>
       </c>
       <c r="D13">
-        <v>14.7241978973455</v>
+        <v>14.72419789734555</v>
       </c>
       <c r="E13">
-        <v>26.41882552304263</v>
+        <v>26.41882552304268</v>
       </c>
       <c r="F13">
-        <v>101.2646960550651</v>
+        <v>101.2646960550657</v>
       </c>
       <c r="G13">
-        <v>82.18465312905433</v>
+        <v>82.18465312905478</v>
       </c>
       <c r="H13">
-        <v>77.20478439489931</v>
+        <v>77.20478439489975</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.11538912719079</v>
+        <v>22.11538912719078</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,28 +760,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.364949300736737</v>
+        <v>3.364949300736587</v>
       </c>
       <c r="D14">
-        <v>14.45315894940917</v>
+        <v>14.45315894940911</v>
       </c>
       <c r="E14">
-        <v>25.9309855465268</v>
+        <v>25.9309855465267</v>
       </c>
       <c r="F14">
-        <v>99.50962308463485</v>
+        <v>99.50962308463447</v>
       </c>
       <c r="G14">
-        <v>80.75286280478038</v>
+        <v>80.75286280478007</v>
       </c>
       <c r="H14">
-        <v>75.86098032095747</v>
+        <v>75.86098032095721</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.71177801100336</v>
+        <v>21.71177801100321</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -789,22 +789,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.334796839013789</v>
+        <v>3.334796839013813</v>
       </c>
       <c r="D15">
-        <v>14.29290261175874</v>
+        <v>14.29290261175879</v>
       </c>
       <c r="E15">
-        <v>25.64260028406554</v>
+        <v>25.6426002840655</v>
       </c>
       <c r="F15">
-        <v>98.46810212097576</v>
+        <v>98.46810212097577</v>
       </c>
       <c r="G15">
-        <v>79.90338590914776</v>
+        <v>79.90338590914783</v>
       </c>
       <c r="H15">
-        <v>75.06365741686595</v>
+        <v>75.06365741686598</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.175610308729952</v>
+        <v>3.175610308730084</v>
       </c>
       <c r="D16">
-        <v>13.4390849666536</v>
+        <v>13.43908496665371</v>
       </c>
       <c r="E16">
-        <v>24.1067100790946</v>
+        <v>24.10671007909454</v>
       </c>
       <c r="F16">
-        <v>92.87520514411044</v>
+        <v>92.87520514411027</v>
       </c>
       <c r="G16">
-        <v>75.34391327868579</v>
+        <v>75.34391327868569</v>
       </c>
       <c r="H16">
-        <v>70.78354237169003</v>
+        <v>70.78354237168993</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.086592873121317</v>
+        <v>3.086592873121091</v>
       </c>
       <c r="D17">
-        <v>12.95570429474418</v>
+        <v>12.95570429474421</v>
       </c>
       <c r="E17">
-        <v>23.23750557263457</v>
+        <v>23.23750557263461</v>
       </c>
       <c r="F17">
-        <v>89.67923141823687</v>
+        <v>89.67923141823707</v>
       </c>
       <c r="G17">
-        <v>72.73982189283605</v>
+        <v>72.7398218928362</v>
       </c>
       <c r="H17">
-        <v>68.33859746501494</v>
+        <v>68.3385974650151</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.48363933942288</v>
+        <v>19.48363933942295</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,28 +876,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.037620679687118</v>
+        <v>3.037620679687102</v>
       </c>
       <c r="D18">
-        <v>12.68786887563598</v>
+        <v>12.68786887563599</v>
       </c>
       <c r="E18">
-        <v>22.75596413920889</v>
+        <v>22.75596413920882</v>
       </c>
       <c r="F18">
-        <v>87.90015693478188</v>
+        <v>87.90015693478168</v>
       </c>
       <c r="G18">
-        <v>71.29055834891709</v>
+        <v>71.29055834891693</v>
       </c>
       <c r="H18">
-        <v>66.9777844371491</v>
+        <v>66.97778443714897</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.08533345902964</v>
+        <v>19.08533345902961</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,28 +905,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.0213589253991</v>
+        <v>3.021358925399225</v>
       </c>
       <c r="D19">
-        <v>12.59862218043214</v>
+        <v>12.59862218043228</v>
       </c>
       <c r="E19">
-        <v>22.5955175530301</v>
+        <v>22.59551755303016</v>
       </c>
       <c r="F19">
-        <v>87.3061193166795</v>
+        <v>87.30611931668022</v>
       </c>
       <c r="G19">
-        <v>70.80669114022542</v>
+        <v>70.80669114022604</v>
       </c>
       <c r="H19">
-        <v>66.52342976141892</v>
+        <v>66.52342976141946</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.95262262314398</v>
+        <v>18.95262262314404</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -934,28 +934,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>3.095822029761713</v>
+        <v>3.095822029761612</v>
       </c>
       <c r="D20">
-        <v>13.00602576431437</v>
+        <v>13.00602576431434</v>
       </c>
       <c r="E20">
-        <v>23.32798401767504</v>
+        <v>23.327984017675</v>
       </c>
       <c r="F20">
-        <v>90.0128537764575</v>
+        <v>90.01285377645735</v>
       </c>
       <c r="G20">
-        <v>73.01162080312342</v>
+        <v>73.01162080312324</v>
       </c>
       <c r="H20">
-        <v>68.59379872588303</v>
+        <v>68.59379872588291</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.55847953855749</v>
+        <v>19.55847953855742</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,28 +963,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.379719613429122</v>
+        <v>3.379719613429052</v>
       </c>
       <c r="D21">
-        <v>14.53149446678604</v>
+        <v>14.53149446678589</v>
       </c>
       <c r="E21">
-        <v>26.07196744963349</v>
+        <v>26.07196744963343</v>
       </c>
       <c r="F21">
-        <v>100.0177169190804</v>
+        <v>100.0177169190805</v>
       </c>
       <c r="G21">
-        <v>81.16732227276536</v>
+        <v>81.16732227276532</v>
       </c>
       <c r="H21">
-        <v>76.24998103443754</v>
+        <v>76.24998103443755</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.82841648385079</v>
+        <v>21.82841648385066</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,13 +992,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.618362748691479</v>
+        <v>3.618362748691411</v>
       </c>
       <c r="D22">
-        <v>15.78233737013543</v>
+        <v>15.78233737013532</v>
       </c>
       <c r="E22">
-        <v>28.32495000549743</v>
+        <v>28.32495000549748</v>
       </c>
       <c r="F22">
         <v>108.0313594632158</v>
@@ -1007,13 +1007,13 @@
         <v>87.70949829412919</v>
       </c>
       <c r="H22">
-        <v>82.38908342579047</v>
+        <v>82.38908342579046</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.6926115224514</v>
+        <v>23.69261152245139</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3.482856274888978</v>
+        <v>3.482856274889158</v>
       </c>
       <c r="D23">
-        <v>15.07547564452764</v>
+        <v>15.07547564452775</v>
       </c>
       <c r="E23">
-        <v>27.05130067472624</v>
+        <v>27.05130067472628</v>
       </c>
       <c r="F23">
-        <v>103.526693500818</v>
+        <v>103.5266935008186</v>
       </c>
       <c r="G23">
-        <v>84.0306630977985</v>
+        <v>84.03066309779899</v>
       </c>
       <c r="H23">
-        <v>78.93719726804234</v>
+        <v>78.93719726804279</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.63869291459003</v>
+        <v>22.63869291459011</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,28 +1050,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.091642868935945</v>
+        <v>3.091642868936038</v>
       </c>
       <c r="D24">
-        <v>12.98324510381396</v>
+        <v>12.98324510381408</v>
       </c>
       <c r="E24">
-        <v>23.28702396463383</v>
+        <v>23.28702396463395</v>
       </c>
       <c r="F24">
-        <v>89.86184744597551</v>
+        <v>89.861847445976</v>
       </c>
       <c r="G24">
-        <v>72.88859639186302</v>
+        <v>72.88859639186347</v>
       </c>
       <c r="H24">
-        <v>68.47828728421945</v>
+        <v>68.47828728421985</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.52459895166233</v>
+        <v>19.52459895166242</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,28 +1079,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.75931540056099</v>
+        <v>2.759315400561232</v>
       </c>
       <c r="D25">
-        <v>11.13742021197163</v>
+        <v>11.13742021197164</v>
       </c>
       <c r="E25">
-        <v>19.96913019791163</v>
+        <v>19.96913019791159</v>
       </c>
       <c r="F25">
-        <v>77.50470852817961</v>
+        <v>77.50470852817963</v>
       </c>
       <c r="G25">
-        <v>62.82522255720474</v>
+        <v>62.82522255720476</v>
       </c>
       <c r="H25">
-        <v>59.02749578251402</v>
+        <v>59.02749578251401</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.78036626567592</v>
+        <v>16.78036626567593</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.539476493828559</v>
+        <v>2.539476493828676</v>
       </c>
       <c r="D2">
-        <v>9.872288876674498</v>
+        <v>9.872288876674464</v>
       </c>
       <c r="E2">
-        <v>17.69577361592361</v>
+        <v>17.69577361592364</v>
       </c>
       <c r="F2">
-        <v>68.92986720299722</v>
+        <v>68.92986720299716</v>
       </c>
       <c r="G2">
-        <v>55.84314590101683</v>
+        <v>55.84314590101679</v>
       </c>
       <c r="H2">
-        <v>52.46824124738121</v>
+        <v>52.46824124738117</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.90020505745286</v>
+        <v>14.90020505745287</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.396409799178498</v>
+        <v>2.39640979917859</v>
       </c>
       <c r="D3">
-        <v>9.024424522323546</v>
+        <v>9.024424522323514</v>
       </c>
       <c r="E3">
-        <v>16.17250079784493</v>
+        <v>16.1725007978448</v>
       </c>
       <c r="F3">
-        <v>63.15457294200091</v>
+        <v>63.15457294200036</v>
       </c>
       <c r="G3">
-        <v>51.13883833575505</v>
+        <v>51.13883833575462</v>
       </c>
       <c r="H3">
-        <v>48.04777928667598</v>
+        <v>48.04777928667555</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.64041584193628</v>
+        <v>13.64041584193622</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,28 +470,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.309800939935402</v>
+        <v>2.309800939935629</v>
       </c>
       <c r="D4">
-        <v>8.499485442648416</v>
+        <v>8.499485442648508</v>
       </c>
       <c r="E4">
-        <v>15.22952491954377</v>
+        <v>15.2295249195438</v>
       </c>
       <c r="F4">
-        <v>59.57300029948323</v>
+        <v>59.57300029948359</v>
       </c>
       <c r="G4">
-        <v>48.21996170900128</v>
+        <v>48.2199617090016</v>
       </c>
       <c r="H4">
-        <v>45.30456113555822</v>
+        <v>45.30456113555852</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.86055181592845</v>
+        <v>12.86055181592851</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,28 +499,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.274645640839024</v>
+        <v>2.274645640839157</v>
       </c>
       <c r="D5">
-        <v>8.283505003692804</v>
+        <v>8.283505003692895</v>
       </c>
       <c r="E5">
-        <v>14.841580492523</v>
+        <v>14.84158049252302</v>
       </c>
       <c r="F5">
-        <v>58.09893079473159</v>
+        <v>58.09893079473186</v>
       </c>
       <c r="G5">
-        <v>47.01818187274123</v>
+        <v>47.01818187274146</v>
       </c>
       <c r="H5">
-        <v>44.17499363413333</v>
+        <v>44.17499363413353</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.53971294989176</v>
+        <v>12.53971294989181</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,28 +528,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.268812429998943</v>
+        <v>2.268812429998801</v>
       </c>
       <c r="D6">
-        <v>8.247493126041377</v>
+        <v>8.247493126041226</v>
       </c>
       <c r="E6">
-        <v>14.77689788514554</v>
+        <v>14.7768978851456</v>
       </c>
       <c r="F6">
-        <v>57.85314811744093</v>
+        <v>57.85314811744059</v>
       </c>
       <c r="G6">
-        <v>46.81777013102261</v>
+        <v>46.81777013102228</v>
       </c>
       <c r="H6">
-        <v>43.98661758031458</v>
+        <v>43.9866175803143</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.4862190047167</v>
+        <v>12.48621900471668</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,28 +557,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.309326452174285</v>
+        <v>2.309326452174511</v>
       </c>
       <c r="D7">
-        <v>8.49658211614986</v>
+        <v>8.496582116149828</v>
       </c>
       <c r="E7">
         <v>15.22430982723446</v>
       </c>
       <c r="F7">
-        <v>59.55318570971213</v>
+        <v>59.55318570971188</v>
       </c>
       <c r="G7">
-        <v>48.20380921320754</v>
+        <v>48.20380921320735</v>
       </c>
       <c r="H7">
-        <v>45.28937965145497</v>
+        <v>45.28937965145478</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.85623881329203</v>
+        <v>12.85623881329204</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,28 +586,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.489768810591947</v>
+        <v>2.489768810591814</v>
       </c>
       <c r="D8">
-        <v>9.580175711623315</v>
+        <v>9.58017571162309</v>
       </c>
       <c r="E8">
         <v>17.1709362034587</v>
       </c>
       <c r="F8">
-        <v>66.9419911077529</v>
+        <v>66.94199110775243</v>
       </c>
       <c r="G8">
-        <v>54.22416146659032</v>
+        <v>54.2241614665899</v>
       </c>
       <c r="H8">
-        <v>50.9470403385136</v>
+        <v>50.94704033851324</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.46614879847245</v>
+        <v>14.46614879847239</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -615,28 +615,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.865520037828368</v>
+        <v>2.86552003782851</v>
       </c>
       <c r="D9">
-        <v>11.73512238086431</v>
+        <v>11.73512238086427</v>
       </c>
       <c r="E9">
-        <v>21.04334197112009</v>
+        <v>21.04334197112005</v>
       </c>
       <c r="F9">
-        <v>81.52979990318285</v>
+        <v>81.52979990318248</v>
       </c>
       <c r="G9">
-        <v>66.10256778264805</v>
+        <v>66.10256778264775</v>
       </c>
       <c r="H9">
-        <v>62.10575751339996</v>
+        <v>62.10575751339963</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.6688123734451</v>
+        <v>17.66881237344509</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -644,28 +644,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.186127498650365</v>
+        <v>3.186127498650208</v>
       </c>
       <c r="D10">
-        <v>13.49590783416955</v>
+        <v>13.49590783416957</v>
       </c>
       <c r="E10">
-        <v>24.20890085535997</v>
+        <v>24.20890085535989</v>
       </c>
       <c r="F10">
-        <v>93.24957236690368</v>
+        <v>93.24957236690355</v>
       </c>
       <c r="G10">
-        <v>75.64900623606435</v>
+        <v>75.64900623606425</v>
       </c>
       <c r="H10">
-        <v>71.06997122456914</v>
+        <v>71.06997122456906</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.28716061541243</v>
+        <v>20.28716061541234</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -673,28 +673,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.359116898878015</v>
+        <v>3.359116898877968</v>
       </c>
       <c r="D11">
-        <v>14.42219622825536</v>
+        <v>14.42219622825528</v>
       </c>
       <c r="E11">
-        <v>25.87526417375516</v>
+        <v>25.87526417375512</v>
       </c>
       <c r="F11">
-        <v>99.30860954952244</v>
+        <v>99.30860954952222</v>
       </c>
       <c r="G11">
-        <v>80.58890273432742</v>
+        <v>80.58890273432721</v>
       </c>
       <c r="H11">
-        <v>75.70708938769279</v>
+        <v>75.70708938769258</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.66567850718035</v>
+        <v>21.66567850718028</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.432385776078062</v>
+        <v>3.432385776078041</v>
       </c>
       <c r="D12">
-        <v>14.80992983311996</v>
+        <v>14.80992983311962</v>
       </c>
       <c r="E12">
-        <v>26.57316194009973</v>
+        <v>26.57316194009949</v>
       </c>
       <c r="F12">
-        <v>101.8181004880383</v>
+        <v>101.8181004880374</v>
       </c>
       <c r="G12">
-        <v>82.63621253389319</v>
+        <v>82.63621253389235</v>
       </c>
       <c r="H12">
-        <v>77.62857296883965</v>
+        <v>77.62857296883887</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.24308238399437</v>
+        <v>22.24308238399422</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.416141833550142</v>
+        <v>3.416141833549987</v>
       </c>
       <c r="D13">
-        <v>14.72419789734555</v>
+        <v>14.7241978973455</v>
       </c>
       <c r="E13">
-        <v>26.41882552304268</v>
+        <v>26.41882552304263</v>
       </c>
       <c r="F13">
-        <v>101.2646960550657</v>
+        <v>101.2646960550651</v>
       </c>
       <c r="G13">
-        <v>82.18465312905478</v>
+        <v>82.18465312905433</v>
       </c>
       <c r="H13">
-        <v>77.20478439489975</v>
+        <v>77.20478439489931</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.11538912719078</v>
+        <v>22.11538912719079</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,28 +760,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.364949300736587</v>
+        <v>3.364949300736737</v>
       </c>
       <c r="D14">
-        <v>14.45315894940911</v>
+        <v>14.45315894940917</v>
       </c>
       <c r="E14">
-        <v>25.9309855465267</v>
+        <v>25.9309855465268</v>
       </c>
       <c r="F14">
-        <v>99.50962308463447</v>
+        <v>99.50962308463485</v>
       </c>
       <c r="G14">
-        <v>80.75286280478007</v>
+        <v>80.75286280478038</v>
       </c>
       <c r="H14">
-        <v>75.86098032095721</v>
+        <v>75.86098032095747</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.71177801100321</v>
+        <v>21.71177801100336</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -789,22 +789,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.334796839013813</v>
+        <v>3.334796839013789</v>
       </c>
       <c r="D15">
-        <v>14.29290261175879</v>
+        <v>14.29290261175874</v>
       </c>
       <c r="E15">
-        <v>25.6426002840655</v>
+        <v>25.64260028406554</v>
       </c>
       <c r="F15">
-        <v>98.46810212097577</v>
+        <v>98.46810212097576</v>
       </c>
       <c r="G15">
-        <v>79.90338590914783</v>
+        <v>79.90338590914776</v>
       </c>
       <c r="H15">
-        <v>75.06365741686598</v>
+        <v>75.06365741686595</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.175610308730084</v>
+        <v>3.175610308729952</v>
       </c>
       <c r="D16">
-        <v>13.43908496665371</v>
+        <v>13.4390849666536</v>
       </c>
       <c r="E16">
-        <v>24.10671007909454</v>
+        <v>24.1067100790946</v>
       </c>
       <c r="F16">
-        <v>92.87520514411027</v>
+        <v>92.87520514411044</v>
       </c>
       <c r="G16">
-        <v>75.34391327868569</v>
+        <v>75.34391327868579</v>
       </c>
       <c r="H16">
-        <v>70.78354237168993</v>
+        <v>70.78354237169003</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.086592873121091</v>
+        <v>3.086592873121317</v>
       </c>
       <c r="D17">
-        <v>12.95570429474421</v>
+        <v>12.95570429474418</v>
       </c>
       <c r="E17">
-        <v>23.23750557263461</v>
+        <v>23.23750557263457</v>
       </c>
       <c r="F17">
-        <v>89.67923141823707</v>
+        <v>89.67923141823687</v>
       </c>
       <c r="G17">
-        <v>72.7398218928362</v>
+        <v>72.73982189283605</v>
       </c>
       <c r="H17">
-        <v>68.3385974650151</v>
+        <v>68.33859746501494</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.48363933942295</v>
+        <v>19.48363933942288</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,28 +876,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.037620679687102</v>
+        <v>3.037620679687118</v>
       </c>
       <c r="D18">
-        <v>12.68786887563599</v>
+        <v>12.68786887563598</v>
       </c>
       <c r="E18">
-        <v>22.75596413920882</v>
+        <v>22.75596413920889</v>
       </c>
       <c r="F18">
-        <v>87.90015693478168</v>
+        <v>87.90015693478188</v>
       </c>
       <c r="G18">
-        <v>71.29055834891693</v>
+        <v>71.29055834891709</v>
       </c>
       <c r="H18">
-        <v>66.97778443714897</v>
+        <v>66.9777844371491</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.08533345902961</v>
+        <v>19.08533345902964</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,28 +905,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.021358925399225</v>
+        <v>3.0213589253991</v>
       </c>
       <c r="D19">
-        <v>12.59862218043228</v>
+        <v>12.59862218043214</v>
       </c>
       <c r="E19">
-        <v>22.59551755303016</v>
+        <v>22.5955175530301</v>
       </c>
       <c r="F19">
-        <v>87.30611931668022</v>
+        <v>87.3061193166795</v>
       </c>
       <c r="G19">
-        <v>70.80669114022604</v>
+        <v>70.80669114022542</v>
       </c>
       <c r="H19">
-        <v>66.52342976141946</v>
+        <v>66.52342976141892</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.95262262314404</v>
+        <v>18.95262262314398</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -934,28 +934,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>3.095822029761612</v>
+        <v>3.095822029761713</v>
       </c>
       <c r="D20">
-        <v>13.00602576431434</v>
+        <v>13.00602576431437</v>
       </c>
       <c r="E20">
-        <v>23.327984017675</v>
+        <v>23.32798401767504</v>
       </c>
       <c r="F20">
-        <v>90.01285377645735</v>
+        <v>90.0128537764575</v>
       </c>
       <c r="G20">
-        <v>73.01162080312324</v>
+        <v>73.01162080312342</v>
       </c>
       <c r="H20">
-        <v>68.59379872588291</v>
+        <v>68.59379872588303</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.55847953855742</v>
+        <v>19.55847953855749</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,28 +963,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.379719613429052</v>
+        <v>3.379719613429122</v>
       </c>
       <c r="D21">
-        <v>14.53149446678589</v>
+        <v>14.53149446678604</v>
       </c>
       <c r="E21">
-        <v>26.07196744963343</v>
+        <v>26.07196744963349</v>
       </c>
       <c r="F21">
-        <v>100.0177169190805</v>
+        <v>100.0177169190804</v>
       </c>
       <c r="G21">
-        <v>81.16732227276532</v>
+        <v>81.16732227276536</v>
       </c>
       <c r="H21">
-        <v>76.24998103443755</v>
+        <v>76.24998103443754</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.82841648385066</v>
+        <v>21.82841648385079</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,13 +992,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.618362748691411</v>
+        <v>3.618362748691479</v>
       </c>
       <c r="D22">
-        <v>15.78233737013532</v>
+        <v>15.78233737013543</v>
       </c>
       <c r="E22">
-        <v>28.32495000549748</v>
+        <v>28.32495000549743</v>
       </c>
       <c r="F22">
         <v>108.0313594632158</v>
@@ -1007,13 +1007,13 @@
         <v>87.70949829412919</v>
       </c>
       <c r="H22">
-        <v>82.38908342579046</v>
+        <v>82.38908342579047</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.69261152245139</v>
+        <v>23.6926115224514</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3.482856274889158</v>
+        <v>3.482856274888978</v>
       </c>
       <c r="D23">
-        <v>15.07547564452775</v>
+        <v>15.07547564452764</v>
       </c>
       <c r="E23">
-        <v>27.05130067472628</v>
+        <v>27.05130067472624</v>
       </c>
       <c r="F23">
-        <v>103.5266935008186</v>
+        <v>103.526693500818</v>
       </c>
       <c r="G23">
-        <v>84.03066309779899</v>
+        <v>84.0306630977985</v>
       </c>
       <c r="H23">
-        <v>78.93719726804279</v>
+        <v>78.93719726804234</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.63869291459011</v>
+        <v>22.63869291459003</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,28 +1050,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.091642868936038</v>
+        <v>3.091642868935945</v>
       </c>
       <c r="D24">
-        <v>12.98324510381408</v>
+        <v>12.98324510381396</v>
       </c>
       <c r="E24">
-        <v>23.28702396463395</v>
+        <v>23.28702396463383</v>
       </c>
       <c r="F24">
-        <v>89.861847445976</v>
+        <v>89.86184744597551</v>
       </c>
       <c r="G24">
-        <v>72.88859639186347</v>
+        <v>72.88859639186302</v>
       </c>
       <c r="H24">
-        <v>68.47828728421985</v>
+        <v>68.47828728421945</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.52459895166242</v>
+        <v>19.52459895166233</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,28 +1079,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.759315400561232</v>
+        <v>2.75931540056099</v>
       </c>
       <c r="D25">
-        <v>11.13742021197164</v>
+        <v>11.13742021197163</v>
       </c>
       <c r="E25">
-        <v>19.96913019791159</v>
+        <v>19.96913019791163</v>
       </c>
       <c r="F25">
-        <v>77.50470852817963</v>
+        <v>77.50470852817961</v>
       </c>
       <c r="G25">
-        <v>62.82522255720476</v>
+        <v>62.82522255720474</v>
       </c>
       <c r="H25">
-        <v>59.02749578251401</v>
+        <v>59.02749578251402</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.78036626567593</v>
+        <v>16.78036626567592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,701 +406,776 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.539476493828676</v>
+        <v>2.530778493717045</v>
       </c>
       <c r="D2">
-        <v>9.872288876674464</v>
+        <v>9.85695376768431</v>
       </c>
       <c r="E2">
-        <v>17.69577361592364</v>
+        <v>17.69392475666788</v>
       </c>
       <c r="F2">
-        <v>68.92986720299716</v>
+        <v>68.86449725931911</v>
       </c>
       <c r="G2">
-        <v>55.84314590101679</v>
+        <v>55.92370529778362</v>
       </c>
       <c r="H2">
-        <v>52.46824124738117</v>
+        <v>55.59993701626716</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>14.90020505745287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>52.41825985789191</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>14.89537561507342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.39640979917859</v>
+        <v>2.388747405387114</v>
       </c>
       <c r="D3">
-        <v>9.024424522323514</v>
+        <v>9.010762596086488</v>
       </c>
       <c r="E3">
-        <v>16.1725007978448</v>
+        <v>16.17148427886048</v>
       </c>
       <c r="F3">
-        <v>63.15457294200036</v>
+        <v>63.09716783257446</v>
       </c>
       <c r="G3">
-        <v>51.13883833575462</v>
+        <v>51.21469861236663</v>
       </c>
       <c r="H3">
-        <v>48.04777928667555</v>
+        <v>50.94549568183863</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>13.64041584193622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>48.00387132500896</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>13.63655238289128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.309800939935629</v>
+        <v>2.302775237900784</v>
       </c>
       <c r="D4">
-        <v>8.499485442648508</v>
+        <v>8.486795761315893</v>
       </c>
       <c r="E4">
-        <v>15.2295249195438</v>
+        <v>15.22890754824888</v>
       </c>
       <c r="F4">
-        <v>59.57300029948359</v>
+        <v>59.52011946315442</v>
       </c>
       <c r="G4">
-        <v>48.2199617090016</v>
+        <v>48.2925722583815</v>
       </c>
       <c r="H4">
-        <v>45.30456113555852</v>
+        <v>48.06121813695322</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>12.86055181592851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>45.2641018034785</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>12.8571910670003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.274645640839157</v>
+        <v>2.267881274824394</v>
       </c>
       <c r="D5">
-        <v>8.283505003692895</v>
+        <v>8.271203295884941</v>
       </c>
       <c r="E5">
-        <v>14.84158049252302</v>
+        <v>14.84110544573499</v>
       </c>
       <c r="F5">
-        <v>58.09893079473186</v>
+        <v>58.04783322186827</v>
       </c>
       <c r="G5">
-        <v>47.01818187274146</v>
+        <v>47.08939149525015</v>
       </c>
       <c r="H5">
-        <v>44.17499363413353</v>
+        <v>46.87467123105878</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>12.53971294989181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>44.13589341276461</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>12.53654107932928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.268812429998801</v>
+        <v>2.26209161061136</v>
       </c>
       <c r="D6">
-        <v>8.247493126041226</v>
+        <v>8.235255473576906</v>
       </c>
       <c r="E6">
-        <v>14.7768978851456</v>
+        <v>14.77644541908586</v>
       </c>
       <c r="F6">
-        <v>57.85314811744059</v>
+        <v>57.80234372919492</v>
       </c>
       <c r="G6">
-        <v>46.81777013102228</v>
+        <v>46.88874283088433</v>
       </c>
       <c r="H6">
-        <v>43.9866175803143</v>
+        <v>46.67686145658303</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>12.48621900471668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>43.94774080134919</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>12.48307768477239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.309326452174511</v>
+        <v>2.302304265198101</v>
       </c>
       <c r="D7">
-        <v>8.496582116149828</v>
+        <v>8.483897694410839</v>
       </c>
       <c r="E7">
-        <v>15.22430982723446</v>
+        <v>15.22369444944914</v>
       </c>
       <c r="F7">
-        <v>59.55318570971188</v>
+        <v>59.50032913381256</v>
       </c>
       <c r="G7">
-        <v>48.20380921320735</v>
+        <v>48.27640116401355</v>
       </c>
       <c r="H7">
-        <v>45.28937965145478</v>
+        <v>48.04526630553612</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>12.85623881329204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>45.24893881000351</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>12.85288066918716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.489768810591814</v>
+        <v>2.481428927343081</v>
       </c>
       <c r="D8">
-        <v>9.58017571162309</v>
+        <v>9.56543305379456</v>
       </c>
       <c r="E8">
-        <v>17.1709362034587</v>
+        <v>17.16940333726055</v>
       </c>
       <c r="F8">
-        <v>66.94199110775243</v>
+        <v>66.87946657329607</v>
       </c>
       <c r="G8">
-        <v>54.2241614665899</v>
+        <v>54.30318755829341</v>
       </c>
       <c r="H8">
-        <v>50.94704033851324</v>
+        <v>53.99739777254282</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>14.46614879847239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>50.89922903547707</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>14.46167617073246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.86552003782851</v>
+        <v>2.854475755029268</v>
       </c>
       <c r="D9">
-        <v>11.73512238086427</v>
+        <v>11.71546569508974</v>
       </c>
       <c r="E9">
-        <v>21.04334197112005</v>
+        <v>21.03848286869433</v>
       </c>
       <c r="F9">
-        <v>81.52979990318248</v>
+        <v>81.44291700922558</v>
       </c>
       <c r="G9">
-        <v>66.10256778264775</v>
+        <v>66.1900160144469</v>
       </c>
       <c r="H9">
-        <v>62.10575751339963</v>
+        <v>65.76759056448786</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>17.66881237344509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>62.03935252197124</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>17.66088880847946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.186127498650208</v>
+        <v>3.172640632029365</v>
       </c>
       <c r="D10">
-        <v>13.49590783416957</v>
+        <v>13.47069265153287</v>
       </c>
       <c r="E10">
-        <v>24.20890085535989</v>
+        <v>24.19849771018367</v>
       </c>
       <c r="F10">
-        <v>93.24957236690355</v>
+        <v>93.13347272826562</v>
       </c>
       <c r="G10">
-        <v>75.64900623606425</v>
+        <v>75.73533289563269</v>
       </c>
       <c r="H10">
-        <v>71.06997122456906</v>
+        <v>75.23845504312141</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>20.28716061541234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>70.98121130883055</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>20.27408745570289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.359116898877968</v>
+        <v>3.344143237913771</v>
       </c>
       <c r="D11">
-        <v>14.42219622825528</v>
+        <v>14.39292667918109</v>
       </c>
       <c r="E11">
-        <v>25.87526417375512</v>
+        <v>25.8598758574861</v>
       </c>
       <c r="F11">
-        <v>99.30860954952222</v>
+        <v>99.17048755745137</v>
       </c>
       <c r="G11">
-        <v>80.58890273432721</v>
+        <v>80.66897018655564</v>
       </c>
       <c r="H11">
-        <v>75.70708938769258</v>
+        <v>80.13828051266842</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>21.66567850718028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>75.60144518482892</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>21.64818769922647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3.432385776078041</v>
+        <v>3.41671528122432</v>
       </c>
       <c r="D12">
-        <v>14.80992983311962</v>
+        <v>14.7785701020512</v>
       </c>
       <c r="E12">
-        <v>26.57316194009949</v>
+        <v>26.55496746444874</v>
       </c>
       <c r="F12">
-        <v>101.8181004880374</v>
+        <v>101.6684762601887</v>
       </c>
       <c r="G12">
-        <v>82.63621253389235</v>
+        <v>82.7117286356177</v>
       </c>
       <c r="H12">
-        <v>77.62857296883887</v>
+        <v>82.16780365668848</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>22.24308238399422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>77.51410053149638</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>22.22314761673261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.416141833549987</v>
+        <v>3.400630312139326</v>
       </c>
       <c r="D13">
-        <v>14.7241978973455</v>
+        <v>14.69332572474628</v>
       </c>
       <c r="E13">
-        <v>26.41882552304263</v>
+        <v>26.40129801054341</v>
       </c>
       <c r="F13">
-        <v>101.2646960550651</v>
+        <v>101.1177619841477</v>
       </c>
       <c r="G13">
-        <v>82.18465312905433</v>
+        <v>82.26129939746225</v>
       </c>
       <c r="H13">
-        <v>77.20478439489931</v>
+        <v>81.72025702982828</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>22.11538912719079</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>77.09237724333626</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>22.09603319446577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3.364949300736737</v>
+        <v>3.349921957461251</v>
       </c>
       <c r="D14">
-        <v>14.45315894940917</v>
+        <v>14.42373271261289</v>
       </c>
       <c r="E14">
-        <v>25.9309855465268</v>
+        <v>25.91539185939845</v>
       </c>
       <c r="F14">
-        <v>99.50962308463485</v>
+        <v>99.37064177686626</v>
       </c>
       <c r="G14">
-        <v>80.75286280478038</v>
+        <v>80.83261674630489</v>
       </c>
       <c r="H14">
-        <v>75.86098032095747</v>
+        <v>80.30085120671538</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>21.71177801100336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>75.75467678281069</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>21.69410751705667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.334796839013789</v>
+        <v>3.320044069775065</v>
       </c>
       <c r="D15">
-        <v>14.29290261175874</v>
+        <v>14.26427017575604</v>
       </c>
       <c r="E15">
-        <v>25.64260028406554</v>
+        <v>25.62803810588613</v>
       </c>
       <c r="F15">
-        <v>98.46810212097576</v>
+        <v>98.33346875455403</v>
       </c>
       <c r="G15">
-        <v>79.90338590914776</v>
+        <v>79.98467829216153</v>
       </c>
       <c r="H15">
-        <v>75.06365741686595</v>
+        <v>79.4585176469576</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>21.47319315856248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>74.96068959789014</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>21.45642667974785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.175610308729952</v>
+        <v>3.162208574433676</v>
       </c>
       <c r="D16">
-        <v>13.4390849666536</v>
+        <v>13.41408560296272</v>
       </c>
       <c r="E16">
-        <v>24.1067100790946</v>
+        <v>24.09655254746628</v>
       </c>
       <c r="F16">
-        <v>92.87520514411044</v>
+        <v>92.76026412990271</v>
       </c>
       <c r="G16">
-        <v>75.34391327868579</v>
+        <v>75.43046060261038</v>
       </c>
       <c r="H16">
-        <v>70.78354237169003</v>
+        <v>74.93576506708402</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>20.20262783249406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>70.6956700093516</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>20.18977592396311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>3.086592873121317</v>
+        <v>3.073894356808497</v>
       </c>
       <c r="D17">
-        <v>12.95570429474418</v>
+        <v>12.9324232235891</v>
       </c>
       <c r="E17">
-        <v>23.23750557263457</v>
+        <v>23.2292221307562</v>
       </c>
       <c r="F17">
-        <v>89.67923141823687</v>
+        <v>89.57345375646977</v>
       </c>
       <c r="G17">
-        <v>72.73982189283605</v>
+        <v>72.82765552968753</v>
       </c>
       <c r="H17">
-        <v>68.33859746501494</v>
+        <v>72.35207357511018</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>19.48363933942288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>68.25774169528992</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>19.47249175162192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.037620679687118</v>
+        <v>3.025297959184652</v>
       </c>
       <c r="D18">
-        <v>12.68786887563598</v>
+        <v>12.66546055690043</v>
       </c>
       <c r="E18">
-        <v>22.75596413920889</v>
+        <v>22.74857389992003</v>
       </c>
       <c r="F18">
-        <v>87.90015693478188</v>
+        <v>87.79898744397383</v>
       </c>
       <c r="G18">
-        <v>71.29055834891709</v>
+        <v>71.37870380154253</v>
       </c>
       <c r="H18">
-        <v>66.9777844371491</v>
+        <v>70.91415675674324</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>19.08533345902964</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>66.90045522654725</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>19.07501032020117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.0213589253991</v>
+        <v>3.009159563204775</v>
       </c>
       <c r="D19">
-        <v>12.59862218043214</v>
+        <v>12.5764937226032</v>
       </c>
       <c r="E19">
-        <v>22.5955175530301</v>
+        <v>22.5884048912583</v>
       </c>
       <c r="F19">
-        <v>87.3061193166795</v>
+        <v>87.20642027065782</v>
       </c>
       <c r="G19">
-        <v>70.80669114022542</v>
+        <v>70.89488476856968</v>
       </c>
       <c r="H19">
-        <v>66.52342976141892</v>
+        <v>70.43408885708664</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>18.95262262314398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>66.44722556374022</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>18.9425576532209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>3.095822029761713</v>
+        <v>3.083051897451407</v>
       </c>
       <c r="D20">
-        <v>13.00602576431437</v>
+        <v>12.98257485051618</v>
       </c>
       <c r="E20">
-        <v>23.32798401767504</v>
+        <v>23.31952201753516</v>
       </c>
       <c r="F20">
-        <v>90.0128537764575</v>
+        <v>89.90617553813509</v>
       </c>
       <c r="G20">
-        <v>73.01162080312342</v>
+        <v>73.09936609410612</v>
       </c>
       <c r="H20">
-        <v>68.59379872588303</v>
+        <v>72.62174717462105</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>19.55847953855749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>68.51225359807067</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>19.54716818419852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>3.379719613429122</v>
+        <v>3.364555027762265</v>
       </c>
       <c r="D21">
-        <v>14.53149446678604</v>
+        <v>14.5016643524842</v>
       </c>
       <c r="E21">
-        <v>26.07196744963349</v>
+        <v>26.05584052370784</v>
       </c>
       <c r="F21">
-        <v>100.0177169190804</v>
+        <v>99.87651831282398</v>
       </c>
       <c r="G21">
-        <v>81.16732227276536</v>
+        <v>81.24624653310619</v>
       </c>
       <c r="H21">
-        <v>76.24998103443754</v>
+        <v>80.71177394397276</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>21.82841648385079</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>76.14197604755056</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>21.81028009694419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3.618362748691479</v>
+        <v>3.600614161537854</v>
       </c>
       <c r="D22">
-        <v>15.78233737013543</v>
+        <v>15.74404601060032</v>
       </c>
       <c r="E22">
-        <v>28.32495000549743</v>
+        <v>28.29662373931304</v>
       </c>
       <c r="F22">
-        <v>108.0313594632158</v>
+        <v>107.84315980421</v>
       </c>
       <c r="G22">
-        <v>87.70949829412919</v>
+        <v>87.76542712615529</v>
       </c>
       <c r="H22">
-        <v>82.38908342579047</v>
+        <v>87.19044884972993</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>23.6926115224514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>82.24496641596966</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>23.66398781750839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3.482856274888978</v>
+        <v>3.466672816280177</v>
       </c>
       <c r="D23">
-        <v>15.07547564452764</v>
+        <v>15.04250000094344</v>
       </c>
       <c r="E23">
-        <v>27.05130067472624</v>
+        <v>27.03084673208589</v>
       </c>
       <c r="F23">
-        <v>103.526693500818</v>
+        <v>103.3681266780893</v>
       </c>
       <c r="G23">
-        <v>84.0306630977985</v>
+        <v>84.10216530623649</v>
       </c>
       <c r="H23">
-        <v>78.93719726804234</v>
+        <v>83.54946506631154</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>22.63869291459003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>78.81585728215387</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>22.61680511541136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.091642868935945</v>
+        <v>3.078905199245789</v>
       </c>
       <c r="D24">
-        <v>12.98324510381396</v>
+        <v>12.95987131920152</v>
       </c>
       <c r="E24">
-        <v>23.28702396463383</v>
+        <v>23.27864323936695</v>
       </c>
       <c r="F24">
-        <v>89.86184744597551</v>
+        <v>89.75557832727023</v>
       </c>
       <c r="G24">
-        <v>72.88859639186302</v>
+        <v>72.97638289677165</v>
       </c>
       <c r="H24">
-        <v>68.47828728421945</v>
+        <v>72.49968472022616</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>19.52459895166233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>68.39705532882789</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>19.51336209901826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.75931540056099</v>
+        <v>2.749039877788233</v>
       </c>
       <c r="D25">
-        <v>11.13742021197163</v>
+        <v>11.11927279656592</v>
       </c>
       <c r="E25">
-        <v>19.96913019791163</v>
+        <v>19.96546164553337</v>
       </c>
       <c r="F25">
-        <v>77.50470852817961</v>
+        <v>77.42548058204881</v>
       </c>
       <c r="G25">
-        <v>62.82522255720474</v>
+        <v>62.9111081714485</v>
       </c>
       <c r="H25">
-        <v>59.02749578251402</v>
+        <v>62.51770318002537</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>16.78036626567592</v>
+        <v>58.96693834233806</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>16.77362046815901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,773 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>2.530778493717045</v>
+        <v>8.111042369537611</v>
       </c>
       <c r="D2">
-        <v>9.85695376768431</v>
+        <v>9.826147519922685</v>
       </c>
       <c r="E2">
-        <v>17.69392475666788</v>
+        <v>5.724879399520985</v>
       </c>
       <c r="F2">
-        <v>68.86449725931911</v>
+        <v>93.99240675189979</v>
       </c>
       <c r="G2">
-        <v>55.92370529778362</v>
+        <v>1.841529662352864</v>
       </c>
       <c r="H2">
-        <v>55.59993701626716</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>52.41825985789191</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.698405953650228</v>
+      </c>
+      <c r="K2">
+        <v>82.90944352487448</v>
       </c>
       <c r="L2">
-        <v>14.89537561507342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>10.23365338620059</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>2.388747405387114</v>
+        <v>7.290356865633524</v>
       </c>
       <c r="D3">
-        <v>9.010762596086488</v>
+        <v>8.698733138621705</v>
       </c>
       <c r="E3">
-        <v>16.17148427886048</v>
+        <v>5.687198469269597</v>
       </c>
       <c r="F3">
-        <v>63.09716783257446</v>
+        <v>84.65959483885871</v>
       </c>
       <c r="G3">
-        <v>51.21469861236663</v>
+        <v>1.908906974491567</v>
       </c>
       <c r="H3">
-        <v>50.94549568183863</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>48.00387132500896</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.353974182370542</v>
+      </c>
+      <c r="K3">
+        <v>74.97996434583118</v>
       </c>
       <c r="L3">
-        <v>13.63655238289128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>10.7365431016719</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>2.302775237900784</v>
+        <v>6.813059721780998</v>
       </c>
       <c r="D4">
-        <v>8.486795761315893</v>
+        <v>8.05987901961408</v>
       </c>
       <c r="E4">
-        <v>15.22890754824888</v>
+        <v>5.668739709423683</v>
       </c>
       <c r="F4">
-        <v>59.52011946315442</v>
+        <v>79.44770522660524</v>
       </c>
       <c r="G4">
-        <v>48.2925722583815</v>
+        <v>1.945980857226631</v>
       </c>
       <c r="H4">
-        <v>48.06121813695322</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>45.2641018034785</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.180164790205684</v>
+      </c>
+      <c r="K4">
+        <v>70.34103278216737</v>
       </c>
       <c r="L4">
-        <v>12.8571910670003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>11.01585327864914</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>2.267881274824394</v>
+        <v>6.621552012067854</v>
       </c>
       <c r="D5">
-        <v>8.271203295884941</v>
+        <v>7.806851560217141</v>
       </c>
       <c r="E5">
-        <v>14.84110544573499</v>
+        <v>5.662225850466545</v>
       </c>
       <c r="F5">
-        <v>58.04783322186827</v>
+        <v>77.50004693782303</v>
       </c>
       <c r="G5">
-        <v>47.08939149525015</v>
+        <v>1.960432506053329</v>
       </c>
       <c r="H5">
-        <v>46.87467123105878</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>44.13589341276461</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.116182494231635</v>
+      </c>
+      <c r="K5">
+        <v>68.47532874975352</v>
       </c>
       <c r="L5">
-        <v>12.53654107932928</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>11.12527562093921</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>2.26209161061136</v>
+        <v>6.589859074273573</v>
       </c>
       <c r="D6">
-        <v>8.235255473576906</v>
+        <v>7.765155808031022</v>
       </c>
       <c r="E6">
-        <v>14.77644541908586</v>
+        <v>5.661201724580129</v>
       </c>
       <c r="F6">
-        <v>57.80234372919492</v>
+        <v>77.18071808129046</v>
       </c>
       <c r="G6">
-        <v>46.88874283088433</v>
+        <v>1.962801036627282</v>
       </c>
       <c r="H6">
-        <v>46.67686145658303</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>43.94774080134919</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.10591861902698</v>
+      </c>
+      <c r="K6">
+        <v>68.16636576315925</v>
       </c>
       <c r="L6">
-        <v>12.48307768477239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>11.14323927668659</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>2.302304265198101</v>
+        <v>6.810468375325648</v>
       </c>
       <c r="D7">
-        <v>8.483897694410839</v>
+        <v>8.056442810631276</v>
       </c>
       <c r="E7">
-        <v>15.22369444944914</v>
+        <v>5.668647940164088</v>
       </c>
       <c r="F7">
-        <v>59.50032913381256</v>
+        <v>79.42114750881099</v>
       </c>
       <c r="G7">
-        <v>48.27640116401355</v>
+        <v>1.946178011462917</v>
       </c>
       <c r="H7">
-        <v>48.04526630553612</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>45.24893881000351</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.179276702816989</v>
+      </c>
+      <c r="K7">
+        <v>70.31580245330171</v>
       </c>
       <c r="L7">
-        <v>12.85288066918716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>11.01734395249651</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>2.481428927343081</v>
+        <v>7.819528765737879</v>
       </c>
       <c r="D8">
-        <v>9.56543305379456</v>
+        <v>9.421334187629796</v>
       </c>
       <c r="E8">
-        <v>17.16940333726055</v>
+        <v>5.710779938981459</v>
       </c>
       <c r="F8">
-        <v>66.87946657329607</v>
+        <v>90.63230688940396</v>
       </c>
       <c r="G8">
-        <v>54.30318755829341</v>
+        <v>1.865999851752243</v>
       </c>
       <c r="H8">
-        <v>53.99739777254282</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>50.89922903547707</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.56969302320798</v>
+      </c>
+      <c r="K8">
+        <v>80.10047392632988</v>
       </c>
       <c r="L8">
-        <v>14.46167617073246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>10.4156393204708</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>2.854475755029268</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D9">
-        <v>11.71546569508974</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E9">
-        <v>21.03848286869433</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F9">
-        <v>81.44291700922558</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G9">
-        <v>66.1900160144469</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H9">
-        <v>65.76759056448786</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>62.03935252197124</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K9">
+        <v>106.8731932486423</v>
       </c>
       <c r="L9">
-        <v>17.66088880847946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>3.172640632029365</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D10">
-        <v>13.47069265153287</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E10">
-        <v>24.19849771018367</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F10">
-        <v>93.13347272826562</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G10">
-        <v>75.73533289563269</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H10">
-        <v>75.23845504312141</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>70.98121130883055</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K10">
+        <v>106.8731932486423</v>
       </c>
       <c r="L10">
-        <v>20.27408745570289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>3.344143237913771</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D11">
-        <v>14.39292667918109</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E11">
-        <v>25.8598758574861</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F11">
-        <v>99.17048755745137</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G11">
-        <v>80.66897018655564</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H11">
-        <v>80.13828051266842</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>75.60144518482892</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K11">
+        <v>106.8731932486423</v>
       </c>
       <c r="L11">
-        <v>21.64818769922647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>3.41671528122432</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D12">
-        <v>14.7785701020512</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E12">
-        <v>26.55496746444874</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F12">
-        <v>101.6684762601887</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G12">
-        <v>82.7117286356177</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H12">
-        <v>82.16780365668848</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>77.51410053149638</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K12">
+        <v>106.8731932486423</v>
       </c>
       <c r="L12">
-        <v>22.22314761673261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>3.400630312139326</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D13">
-        <v>14.69332572474628</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E13">
-        <v>26.40129801054341</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F13">
-        <v>101.1177619841477</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G13">
-        <v>82.26129939746225</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H13">
-        <v>81.72025702982828</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>77.09237724333626</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K13">
+        <v>106.8731932486423</v>
       </c>
       <c r="L13">
-        <v>22.09603319446577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>3.349921957461251</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D14">
-        <v>14.42373271261289</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E14">
-        <v>25.91539185939845</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F14">
-        <v>99.37064177686626</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G14">
-        <v>80.83261674630489</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H14">
-        <v>80.30085120671538</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>75.75467678281069</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K14">
+        <v>106.8731932486423</v>
       </c>
       <c r="L14">
-        <v>21.69410751705667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>3.320044069775065</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D15">
-        <v>14.26427017575604</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E15">
-        <v>25.62803810588613</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F15">
-        <v>98.33346875455403</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G15">
-        <v>79.98467829216153</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H15">
-        <v>79.4585176469576</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>74.96068959789014</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K15">
+        <v>106.8731932486423</v>
       </c>
       <c r="L15">
-        <v>21.45642667974785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>3.162208574433676</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D16">
-        <v>13.41408560296272</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E16">
-        <v>24.09655254746628</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F16">
-        <v>92.76026412990271</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G16">
-        <v>75.43046060261038</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H16">
-        <v>74.93576506708402</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>70.6956700093516</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K16">
+        <v>106.8731932486423</v>
       </c>
       <c r="L16">
-        <v>20.18977592396311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>3.073894356808497</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D17">
-        <v>12.9324232235891</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E17">
-        <v>23.2292221307562</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F17">
-        <v>89.57345375646977</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G17">
-        <v>72.82765552968753</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H17">
-        <v>72.35207357511018</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>68.25774169528992</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K17">
+        <v>106.8731932486423</v>
       </c>
       <c r="L17">
-        <v>19.47249175162192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>3.025297959184652</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D18">
-        <v>12.66546055690043</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E18">
-        <v>22.74857389992003</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F18">
-        <v>87.79898744397383</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G18">
-        <v>71.37870380154253</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H18">
-        <v>70.91415675674324</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>66.90045522654725</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K18">
+        <v>106.8731932486423</v>
       </c>
       <c r="L18">
-        <v>19.07501032020117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>3.009159563204775</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D19">
-        <v>12.5764937226032</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E19">
-        <v>22.5884048912583</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F19">
-        <v>87.20642027065782</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G19">
-        <v>70.89488476856968</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H19">
-        <v>70.43408885708664</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>66.44722556374022</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K19">
+        <v>106.8731932486423</v>
       </c>
       <c r="L19">
-        <v>18.9425576532209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>3.083051897451407</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D20">
-        <v>12.98257485051618</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E20">
-        <v>23.31952201753516</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F20">
-        <v>89.90617553813509</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G20">
-        <v>73.09936609410612</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H20">
-        <v>72.62174717462105</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>68.51225359807067</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K20">
+        <v>106.8731932486423</v>
       </c>
       <c r="L20">
-        <v>19.54716818419852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>3.364555027762265</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D21">
-        <v>14.5016643524842</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E21">
-        <v>26.05584052370784</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F21">
-        <v>99.87651831282398</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G21">
-        <v>81.24624653310619</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H21">
-        <v>80.71177394397276</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>76.14197604755056</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K21">
+        <v>106.8731932486423</v>
       </c>
       <c r="L21">
-        <v>21.81028009694419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>3.600614161537854</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D22">
-        <v>15.74404601060032</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E22">
-        <v>28.29662373931304</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F22">
-        <v>107.84315980421</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G22">
-        <v>87.76542712615529</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H22">
-        <v>87.19044884972993</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>82.24496641596966</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K22">
+        <v>106.8731932486423</v>
       </c>
       <c r="L22">
-        <v>23.66398781750839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>3.466672816280177</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D23">
-        <v>15.04250000094344</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E23">
-        <v>27.03084673208589</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F23">
-        <v>103.3681266780893</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G23">
-        <v>84.10216530623649</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H23">
-        <v>83.54946506631154</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>78.81585728215387</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K23">
+        <v>106.8731932486423</v>
       </c>
       <c r="L23">
-        <v>22.61680511541136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>3.078905199245789</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D24">
-        <v>12.95987131920152</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E24">
-        <v>23.27864323936695</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F24">
-        <v>89.75557832727023</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G24">
-        <v>72.97638289677165</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H24">
-        <v>72.49968472022616</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>68.39705532882789</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K24">
+        <v>106.8731932486423</v>
       </c>
       <c r="L24">
-        <v>19.51336209901826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>2.749039877788233</v>
+        <v>10.64217790159931</v>
       </c>
       <c r="D25">
-        <v>11.11927279656592</v>
+        <v>13.57703448325206</v>
       </c>
       <c r="E25">
-        <v>19.96546164553337</v>
+        <v>5.858073875637336</v>
       </c>
       <c r="F25">
-        <v>77.42548058204881</v>
+        <v>124.9371578362011</v>
       </c>
       <c r="G25">
-        <v>62.9111081714485</v>
+        <v>1.601752476160522</v>
       </c>
       <c r="H25">
-        <v>62.51770318002537</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>58.96693834233806</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.514692770470248</v>
+      </c>
+      <c r="K25">
+        <v>106.8731932486423</v>
       </c>
       <c r="L25">
-        <v>16.77362046815901</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>8.473016119267543</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.111042369537611</v>
+        <v>10.12828460350394</v>
       </c>
       <c r="D2">
-        <v>9.826147519922685</v>
+        <v>4.407949433271146</v>
       </c>
       <c r="E2">
-        <v>5.724879399520985</v>
+        <v>8.608895960692251</v>
       </c>
       <c r="F2">
-        <v>93.99240675189979</v>
+        <v>22.10483117686445</v>
       </c>
       <c r="G2">
-        <v>1.841529662352864</v>
+        <v>2.086173302634577</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.698405953650228</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>82.90944352487448</v>
+        <v>18.40667647178991</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.195436816239893</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.27158716743653</v>
       </c>
       <c r="N2">
-        <v>10.23365338620059</v>
+        <v>12.34376914878444</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>17.76985119480666</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.290356865633524</v>
+        <v>9.75522652495575</v>
       </c>
       <c r="D3">
-        <v>8.698733138621705</v>
+        <v>4.353494236095911</v>
       </c>
       <c r="E3">
-        <v>5.687198469269597</v>
+        <v>8.481521372195445</v>
       </c>
       <c r="F3">
-        <v>84.65959483885871</v>
+        <v>21.50863927159793</v>
       </c>
       <c r="G3">
-        <v>1.908906974491567</v>
+        <v>2.092336234068222</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.353974182370542</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>74.97996434583118</v>
+        <v>17.18872842195531</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.227738196314624</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.4906224419247</v>
       </c>
       <c r="N3">
-        <v>10.7365431016719</v>
+        <v>12.51203035109111</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>17.53053347970265</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.813059721780998</v>
+        <v>9.52614412166772</v>
       </c>
       <c r="D4">
-        <v>8.05987901961408</v>
+        <v>4.319583072436465</v>
       </c>
       <c r="E4">
-        <v>5.668739709423683</v>
+        <v>8.408301893848051</v>
       </c>
       <c r="F4">
-        <v>79.44770522660524</v>
+        <v>21.15747421156017</v>
       </c>
       <c r="G4">
-        <v>1.945980857226631</v>
+        <v>2.096234216740837</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.180164790205684</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>70.34103278216737</v>
+        <v>16.39751379199835</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.249569622705703</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.99523040607637</v>
       </c>
       <c r="N4">
-        <v>11.01585327864914</v>
+        <v>12.61869657221731</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>17.40022737856285</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.621552012067854</v>
+        <v>9.432917454035671</v>
       </c>
       <c r="D5">
-        <v>7.806851560217141</v>
+        <v>4.305653246531502</v>
       </c>
       <c r="E5">
-        <v>5.662225850466545</v>
+        <v>8.379716196922512</v>
       </c>
       <c r="F5">
-        <v>77.50004693782303</v>
+        <v>21.01822412962477</v>
       </c>
       <c r="G5">
-        <v>1.960432506053329</v>
+        <v>2.09785212498596</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.116182494231635</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>68.47532874975352</v>
+        <v>16.06412241662392</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.258957559621593</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.78959144166078</v>
       </c>
       <c r="N5">
-        <v>11.12527562093921</v>
+        <v>12.66300910736588</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>17.35121638144678</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.589859074273573</v>
+        <v>9.417448929023713</v>
       </c>
       <c r="D6">
-        <v>7.765155808031022</v>
+        <v>4.303333781778796</v>
       </c>
       <c r="E6">
-        <v>5.661201724580129</v>
+        <v>8.375045032685932</v>
       </c>
       <c r="F6">
-        <v>77.18071808129046</v>
+        <v>20.99533733554342</v>
       </c>
       <c r="G6">
-        <v>1.962801036627282</v>
+        <v>2.098122578795547</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.10591861902698</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>68.16636576315925</v>
+        <v>16.00809929905552</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.260545792254924</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.75522554101737</v>
       </c>
       <c r="N6">
-        <v>11.14323927668659</v>
+        <v>12.67041829178698</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>17.34332218034292</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.810468375325648</v>
+        <v>9.524886140576545</v>
       </c>
       <c r="D7">
-        <v>8.056442810631276</v>
+        <v>4.319395646580387</v>
       </c>
       <c r="E7">
-        <v>5.668647940164088</v>
+        <v>8.407911314285858</v>
       </c>
       <c r="F7">
-        <v>79.42114750881099</v>
+        <v>21.15558050483731</v>
       </c>
       <c r="G7">
-        <v>1.946178011462917</v>
+        <v>2.096255916145947</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.179276702816989</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>70.31580245330171</v>
+        <v>16.39306202413152</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.249694255902127</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.99247198737246</v>
       </c>
       <c r="N7">
-        <v>11.01734395249651</v>
+        <v>12.6192907611431</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>17.39954997229651</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.819528765737879</v>
+        <v>9.999734794884642</v>
       </c>
       <c r="D8">
-        <v>9.421334187629796</v>
+        <v>4.389277172885516</v>
       </c>
       <c r="E8">
-        <v>5.710779938981459</v>
+        <v>8.563940957961707</v>
       </c>
       <c r="F8">
-        <v>90.63230688940396</v>
+        <v>21.89623805832817</v>
       </c>
       <c r="G8">
-        <v>1.865999851752243</v>
+        <v>2.088275134198259</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.56969302320798</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>80.10047392632988</v>
+        <v>17.99569897379278</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.206152756387105</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.00573054487606</v>
       </c>
       <c r="N8">
-        <v>10.4156393204708</v>
+        <v>12.40109061808657</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>17.68382925919784</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.64217790159931</v>
+        <v>10.92554428014105</v>
       </c>
       <c r="D9">
-        <v>13.57703448325206</v>
+        <v>4.522168828456079</v>
       </c>
       <c r="E9">
-        <v>5.858073875637336</v>
+        <v>8.909507274248703</v>
       </c>
       <c r="F9">
-        <v>124.9371578362011</v>
+        <v>23.46196818884434</v>
       </c>
       <c r="G9">
-        <v>1.601752476160522</v>
+        <v>2.07349017181153</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>106.8731932486423</v>
+        <v>20.79693266665866</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.137153898273493</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.85872868491382</v>
       </c>
       <c r="N9">
-        <v>8.473016119267543</v>
+        <v>11.99975882060266</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>18.37686820117346</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.64217790159931</v>
+        <v>11.59651144590778</v>
       </c>
       <c r="D10">
-        <v>13.57703448325206</v>
+        <v>4.616798629851528</v>
       </c>
       <c r="E10">
-        <v>5.858073875637336</v>
+        <v>9.18744424151031</v>
       </c>
       <c r="F10">
-        <v>124.9371578362011</v>
+        <v>24.67493449237152</v>
       </c>
       <c r="G10">
-        <v>1.601752476160522</v>
+        <v>2.063097849167914</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>106.8731932486423</v>
+        <v>22.6509668182328</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.097240231102777</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.32461796641934</v>
       </c>
       <c r="N10">
-        <v>8.473016119267543</v>
+        <v>11.7211057110182</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>18.97282041768687</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.64217790159931</v>
+        <v>11.8987841881792</v>
       </c>
       <c r="D11">
-        <v>13.57703448325206</v>
+        <v>4.659100502125075</v>
       </c>
       <c r="E11">
-        <v>5.858073875637336</v>
+        <v>9.319071691419158</v>
       </c>
       <c r="F11">
-        <v>124.9371578362011</v>
+        <v>25.23912546671067</v>
       </c>
       <c r="G11">
-        <v>1.601752476160522</v>
+        <v>2.05845851939506</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>106.8731932486423</v>
+        <v>23.45110950764712</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.081614061008464</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.98384770078071</v>
       </c>
       <c r="N11">
-        <v>8.473016119267543</v>
+        <v>11.59789467998054</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>19.26347915483235</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.64217790159931</v>
+        <v>12.01276149611607</v>
       </c>
       <c r="D12">
-        <v>13.57703448325206</v>
+        <v>4.675004353091972</v>
       </c>
       <c r="E12">
-        <v>5.858073875637336</v>
+        <v>9.369658899315993</v>
       </c>
       <c r="F12">
-        <v>124.9371578362011</v>
+        <v>25.45446948070578</v>
       </c>
       <c r="G12">
-        <v>1.601752476160522</v>
+        <v>2.05671318727471</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>106.8731932486423</v>
+        <v>23.74796787614751</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.076078143745904</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.22856767538751</v>
       </c>
       <c r="N12">
-        <v>8.473016119267543</v>
+        <v>11.55175470964192</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>19.37640442908571</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.64217790159931</v>
+        <v>11.9882369248485</v>
       </c>
       <c r="D13">
-        <v>13.57703448325206</v>
+        <v>4.671584405345263</v>
       </c>
       <c r="E13">
-        <v>5.858073875637336</v>
+        <v>9.358731053313294</v>
       </c>
       <c r="F13">
-        <v>124.9371578362011</v>
+        <v>25.40801699433242</v>
       </c>
       <c r="G13">
-        <v>1.601752476160522</v>
+        <v>2.057088585243645</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>106.8731932486423</v>
+        <v>23.68430573295301</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.077253148588089</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.17608018398532</v>
       </c>
       <c r="N13">
-        <v>8.473016119267543</v>
+        <v>11.5616686298115</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>19.35195607140984</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.64217790159931</v>
+        <v>11.90817122909045</v>
       </c>
       <c r="D14">
-        <v>13.57703448325206</v>
+        <v>4.660411268090807</v>
       </c>
       <c r="E14">
-        <v>5.858073875637336</v>
+        <v>9.323218663532334</v>
       </c>
       <c r="F14">
-        <v>124.9371578362011</v>
+        <v>25.25680836566887</v>
       </c>
       <c r="G14">
-        <v>1.601752476160522</v>
+        <v>2.058314706971916</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>106.8731932486423</v>
+        <v>23.47565474848917</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.081150869706988</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.00407901569872</v>
       </c>
       <c r="N14">
-        <v>8.473016119267543</v>
+        <v>11.5940882991559</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>19.27271202510886</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.64217790159931</v>
+        <v>11.85906369216268</v>
       </c>
       <c r="D15">
-        <v>13.57703448325206</v>
+        <v>4.653552206696935</v>
       </c>
       <c r="E15">
-        <v>5.858073875637336</v>
+        <v>9.301562932195068</v>
       </c>
       <c r="F15">
-        <v>124.9371578362011</v>
+        <v>25.16440747299961</v>
       </c>
       <c r="G15">
-        <v>1.601752476160522</v>
+        <v>2.05906719995539</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>106.8731932486423</v>
+        <v>23.34705317278659</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.083588543461616</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.89808554675325</v>
       </c>
       <c r="N15">
-        <v>8.473016119267543</v>
+        <v>11.61401390898367</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>19.22454644370475</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.64217790159931</v>
+        <v>11.57669212851748</v>
       </c>
       <c r="D16">
-        <v>13.57703448325206</v>
+        <v>4.614018428818294</v>
       </c>
       <c r="E16">
-        <v>5.858073875637336</v>
+        <v>9.178946203010637</v>
       </c>
       <c r="F16">
-        <v>124.9371578362011</v>
+        <v>24.63830509081684</v>
       </c>
       <c r="G16">
-        <v>1.601752476160522</v>
+        <v>2.063402714356094</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>106.8731932486423</v>
+        <v>22.59781198435251</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.09831382535997</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.28084341795286</v>
       </c>
       <c r="N16">
-        <v>8.473016119267543</v>
+        <v>11.72922980663759</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>18.95422279887102</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.64217790159931</v>
+        <v>11.40266091625827</v>
       </c>
       <c r="D17">
-        <v>13.57703448325206</v>
+        <v>4.589569129369727</v>
       </c>
       <c r="E17">
-        <v>5.858073875637336</v>
+        <v>9.1050516160635</v>
       </c>
       <c r="F17">
-        <v>124.9371578362011</v>
+        <v>24.31866844935491</v>
       </c>
       <c r="G17">
-        <v>1.601752476160522</v>
+        <v>2.066084173904969</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>106.8731932486423</v>
+        <v>22.12715282891526</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.108007502579514</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.89334326796189</v>
       </c>
       <c r="N17">
-        <v>8.473016119267543</v>
+        <v>11.80082435128676</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>18.79343145271762</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.64217790159931</v>
+        <v>11.30228752622902</v>
       </c>
       <c r="D18">
-        <v>13.57703448325206</v>
+        <v>4.575436787968953</v>
       </c>
       <c r="E18">
-        <v>5.858073875637336</v>
+        <v>9.063038347452638</v>
       </c>
       <c r="F18">
-        <v>124.9371578362011</v>
+        <v>24.13599386574587</v>
       </c>
       <c r="G18">
-        <v>1.601752476160522</v>
+        <v>2.067634856412408</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>106.8731932486423</v>
+        <v>21.85236435413073</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.113820134392216</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.66718878009331</v>
       </c>
       <c r="N18">
-        <v>8.473016119267543</v>
+        <v>11.84233719690726</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>18.70278683801265</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.64217790159931</v>
+        <v>11.26825768489269</v>
       </c>
       <c r="D19">
-        <v>13.57703448325206</v>
+        <v>4.570640081803555</v>
       </c>
       <c r="E19">
-        <v>5.858073875637336</v>
+        <v>9.04889749055711</v>
       </c>
       <c r="F19">
-        <v>124.9371578362011</v>
+        <v>24.07434761828532</v>
       </c>
       <c r="G19">
-        <v>1.601752476160522</v>
+        <v>2.068161364878048</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>106.8731932486423</v>
+        <v>21.75862287996778</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.115828400799209</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.59005198750948</v>
       </c>
       <c r="N19">
-        <v>8.473016119267543</v>
+        <v>11.85644985039728</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>18.67241037993887</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.64217790159931</v>
+        <v>11.42121581940457</v>
       </c>
       <c r="D20">
-        <v>13.57703448325206</v>
+        <v>4.592179075163305</v>
       </c>
       <c r="E20">
-        <v>5.858073875637336</v>
+        <v>9.112867249441711</v>
       </c>
       <c r="F20">
-        <v>124.9371578362011</v>
+        <v>24.3525737103857</v>
       </c>
       <c r="G20">
-        <v>1.601752476160522</v>
+        <v>2.065797869283229</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>106.8731932486423</v>
+        <v>22.17767674629105</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.106950934459024</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.93493167402094</v>
       </c>
       <c r="N20">
-        <v>8.473016119267543</v>
+        <v>11.79316842553201</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>18.81035735862706</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.64217790159931</v>
+        <v>11.9317020977484</v>
       </c>
       <c r="D21">
-        <v>13.57703448325206</v>
+        <v>4.663696268605345</v>
       </c>
       <c r="E21">
-        <v>5.858073875637336</v>
+        <v>9.333629380103954</v>
       </c>
       <c r="F21">
-        <v>124.9371578362011</v>
+        <v>25.30117654418401</v>
       </c>
       <c r="G21">
-        <v>1.601752476160522</v>
+        <v>2.057954263722914</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>106.8731932486423</v>
+        <v>23.53710650121388</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.079995518389154</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19.05473269487286</v>
       </c>
       <c r="N21">
-        <v>8.473016119267543</v>
+        <v>11.58455174716791</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>19.29590996643616</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.64217790159931</v>
+        <v>12.26247857130497</v>
       </c>
       <c r="D22">
-        <v>13.57703448325206</v>
+        <v>4.709763576490143</v>
       </c>
       <c r="E22">
-        <v>5.858073875637336</v>
+        <v>9.482238802165824</v>
       </c>
       <c r="F22">
-        <v>124.9371578362011</v>
+        <v>25.93100943915165</v>
       </c>
       <c r="G22">
-        <v>1.601752476160522</v>
+        <v>2.052894310975724</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>106.8731932486423</v>
+        <v>24.38983623854666</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.064610615172641</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.75797299989189</v>
       </c>
       <c r="N22">
-        <v>8.473016119267543</v>
+        <v>11.45122945171298</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>19.62993233484476</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.64217790159931</v>
+        <v>12.08621490573232</v>
       </c>
       <c r="D23">
-        <v>13.57703448325206</v>
+        <v>4.685240642012254</v>
       </c>
       <c r="E23">
-        <v>5.858073875637336</v>
+        <v>9.402528006289327</v>
       </c>
       <c r="F23">
-        <v>124.9371578362011</v>
+        <v>25.59397665437366</v>
       </c>
       <c r="G23">
-        <v>1.601752476160522</v>
+        <v>2.055589258004258</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>106.8731932486423</v>
+        <v>23.93795924804058</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.07261147673554</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.38523132118124</v>
       </c>
       <c r="N23">
-        <v>8.473016119267543</v>
+        <v>11.52210669767468</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>19.45011662586262</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.64217790159931</v>
+        <v>11.41282814117553</v>
       </c>
       <c r="D24">
-        <v>13.57703448325206</v>
+        <v>4.590999355156629</v>
       </c>
       <c r="E24">
-        <v>5.858073875637336</v>
+        <v>9.109332338214838</v>
       </c>
       <c r="F24">
-        <v>124.9371578362011</v>
+        <v>24.3372417437124</v>
       </c>
       <c r="G24">
-        <v>1.601752476160522</v>
+        <v>2.065927279244588</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>106.8731932486423</v>
+        <v>22.1548479723548</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.107427863886213</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.91614007547855</v>
       </c>
       <c r="N24">
-        <v>8.473016119267543</v>
+        <v>11.79662857306937</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>18.80269956450757</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.64217790159931</v>
+        <v>10.67633134349361</v>
       </c>
       <c r="D25">
-        <v>13.57703448325206</v>
+        <v>4.486712487829789</v>
       </c>
       <c r="E25">
-        <v>5.858073875637336</v>
+        <v>8.811787259103012</v>
       </c>
       <c r="F25">
-        <v>124.9371578362011</v>
+        <v>23.0269473407281</v>
       </c>
       <c r="G25">
-        <v>1.601752476160522</v>
+        <v>2.077402950680309</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.514692770470248</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>106.8731932486423</v>
+        <v>20.07527556224108</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.153987676162497</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.37276009653637</v>
       </c>
       <c r="N25">
-        <v>8.473016119267543</v>
+        <v>12.1054904340885</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>18.17440379417112</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.12828460350394</v>
+        <v>13.02524186462899</v>
       </c>
       <c r="D2">
-        <v>4.407949433271146</v>
+        <v>5.915200010421848</v>
       </c>
       <c r="E2">
-        <v>8.608895960692251</v>
+        <v>13.31724460201748</v>
       </c>
       <c r="F2">
-        <v>22.10483117686445</v>
+        <v>29.56490511193664</v>
       </c>
       <c r="G2">
-        <v>2.086173302634577</v>
+        <v>3.663773078584197</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.40667647178991</v>
+        <v>14.65813805415564</v>
       </c>
       <c r="L2">
-        <v>5.195436816239893</v>
+        <v>9.141208926191613</v>
       </c>
       <c r="M2">
-        <v>15.27158716743653</v>
+        <v>17.66702338506492</v>
       </c>
       <c r="N2">
-        <v>12.34376914878444</v>
+        <v>18.42617641486155</v>
       </c>
       <c r="O2">
-        <v>17.76985119480666</v>
+        <v>26.40903883920713</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.75522652495575</v>
+        <v>12.99237485270437</v>
       </c>
       <c r="D3">
-        <v>4.353494236095911</v>
+        <v>5.899631175168965</v>
       </c>
       <c r="E3">
-        <v>8.481521372195445</v>
+        <v>13.33486589885283</v>
       </c>
       <c r="F3">
-        <v>21.50863927159793</v>
+        <v>29.57313151650409</v>
       </c>
       <c r="G3">
-        <v>2.092336234068222</v>
+        <v>3.666122533740872</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.18872842195531</v>
+        <v>14.28602164749289</v>
       </c>
       <c r="L3">
-        <v>5.227738196314624</v>
+        <v>9.163151964872025</v>
       </c>
       <c r="M3">
-        <v>14.4906224419247</v>
+        <v>17.52263150501424</v>
       </c>
       <c r="N3">
-        <v>12.51203035109111</v>
+        <v>18.48109611978033</v>
       </c>
       <c r="O3">
-        <v>17.53053347970265</v>
+        <v>26.4687764412782</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.52614412166772</v>
+        <v>12.97516797331814</v>
       </c>
       <c r="D4">
-        <v>4.319583072436465</v>
+        <v>5.88998372741167</v>
       </c>
       <c r="E4">
-        <v>8.408301893848051</v>
+        <v>13.34812599058976</v>
       </c>
       <c r="F4">
-        <v>21.15747421156017</v>
+        <v>29.58656884987664</v>
       </c>
       <c r="G4">
-        <v>2.096234216740837</v>
+        <v>3.667641749796249</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.39751379199835</v>
+        <v>14.05469630478319</v>
       </c>
       <c r="L4">
-        <v>5.249569622705703</v>
+        <v>9.177574510438511</v>
       </c>
       <c r="M4">
-        <v>13.99523040607637</v>
+        <v>17.43636932123779</v>
       </c>
       <c r="N4">
-        <v>12.61869657221731</v>
+        <v>18.51667331269724</v>
       </c>
       <c r="O4">
-        <v>17.40022737856285</v>
+        <v>26.5119151841128</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.432917454035671</v>
+        <v>12.96890880998883</v>
       </c>
       <c r="D5">
-        <v>4.305653246531502</v>
+        <v>5.88603107484191</v>
       </c>
       <c r="E5">
-        <v>8.379716196922512</v>
+        <v>13.35414286991662</v>
       </c>
       <c r="F5">
-        <v>21.01822412962477</v>
+        <v>29.59415043907299</v>
       </c>
       <c r="G5">
-        <v>2.09785212498596</v>
+        <v>3.66828017758675</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.06412241662392</v>
+        <v>13.95985243191095</v>
       </c>
       <c r="L5">
-        <v>5.258957559621593</v>
+        <v>9.183690895368722</v>
       </c>
       <c r="M5">
-        <v>13.78959144166078</v>
+        <v>17.40185059057594</v>
       </c>
       <c r="N5">
-        <v>12.66300910736588</v>
+        <v>18.53163917370285</v>
       </c>
       <c r="O5">
-        <v>17.35121638144678</v>
+        <v>26.53111397817484</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.417448929023713</v>
+        <v>12.96791507913725</v>
       </c>
       <c r="D6">
-        <v>4.303333781778796</v>
+        <v>5.885373483848872</v>
       </c>
       <c r="E6">
-        <v>8.375045032685932</v>
+        <v>13.35517899421632</v>
       </c>
       <c r="F6">
-        <v>20.99533733554342</v>
+        <v>29.59553642367025</v>
       </c>
       <c r="G6">
-        <v>2.098122578795547</v>
+        <v>3.66838735766643</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.00809929905552</v>
+        <v>13.94407300918116</v>
       </c>
       <c r="L6">
-        <v>5.260545792254924</v>
+        <v>9.184720966300771</v>
       </c>
       <c r="M6">
-        <v>13.75522554101737</v>
+        <v>17.39615796287288</v>
       </c>
       <c r="N6">
-        <v>12.67041829178698</v>
+        <v>18.53415253385818</v>
       </c>
       <c r="O6">
-        <v>17.34332218034292</v>
+        <v>26.5343995799776</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.524886140576545</v>
+        <v>12.97508050597476</v>
       </c>
       <c r="D7">
-        <v>4.319395646580387</v>
+        <v>5.889930505355516</v>
       </c>
       <c r="E7">
-        <v>8.407911314285858</v>
+        <v>13.34820465381185</v>
       </c>
       <c r="F7">
-        <v>21.15558050483731</v>
+        <v>29.58666257674967</v>
       </c>
       <c r="G7">
-        <v>2.096255916145947</v>
+        <v>3.667650281486788</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.39306202413152</v>
+        <v>14.0534193553328</v>
       </c>
       <c r="L7">
-        <v>5.249694255902127</v>
+        <v>9.177656029667352</v>
       </c>
       <c r="M7">
-        <v>13.99247198737246</v>
+        <v>17.43590118242889</v>
       </c>
       <c r="N7">
-        <v>12.6192907611431</v>
+        <v>18.51687325171448</v>
       </c>
       <c r="O7">
-        <v>17.39954997229651</v>
+        <v>26.51216755568474</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.999734794884642</v>
+        <v>13.01329540126471</v>
       </c>
       <c r="D8">
-        <v>4.389277172885516</v>
+        <v>5.909850715689705</v>
       </c>
       <c r="E8">
-        <v>8.563940957961707</v>
+        <v>13.32281368316003</v>
       </c>
       <c r="F8">
-        <v>21.89623805832817</v>
+        <v>29.56599958484291</v>
       </c>
       <c r="G8">
-        <v>2.088275134198259</v>
+        <v>3.664567301780195</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.99569897379278</v>
+        <v>14.53050349503874</v>
       </c>
       <c r="L8">
-        <v>5.206152756387105</v>
+        <v>9.148578034818193</v>
       </c>
       <c r="M8">
-        <v>15.00573054487606</v>
+        <v>17.61675923770903</v>
       </c>
       <c r="N8">
-        <v>12.40109061808657</v>
+        <v>18.44472811461923</v>
       </c>
       <c r="O8">
-        <v>17.68382925919784</v>
+        <v>26.42829283096368</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.92554428014105</v>
+        <v>13.11157375839522</v>
       </c>
       <c r="D9">
-        <v>4.522168828456079</v>
+        <v>5.948175496848202</v>
       </c>
       <c r="E9">
-        <v>8.909507274248703</v>
+        <v>13.29240049633209</v>
       </c>
       <c r="F9">
-        <v>23.46196818884434</v>
+        <v>29.5920971375758</v>
       </c>
       <c r="G9">
-        <v>2.07349017181153</v>
+        <v>3.659126831806954</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.79693266665866</v>
+        <v>15.43778517521276</v>
       </c>
       <c r="L9">
-        <v>5.137153898273493</v>
+        <v>9.099074335699649</v>
       </c>
       <c r="M9">
-        <v>16.85872868491382</v>
+        <v>17.98899112012525</v>
       </c>
       <c r="N9">
-        <v>11.99975882060266</v>
+        <v>18.31793098487695</v>
       </c>
       <c r="O9">
-        <v>18.37686820117346</v>
+        <v>26.31527295611915</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.59651144590778</v>
+        <v>13.19761753572336</v>
       </c>
       <c r="D10">
-        <v>4.616798629851528</v>
+        <v>5.975830706916745</v>
       </c>
       <c r="E10">
-        <v>9.18744424151031</v>
+        <v>13.28188160515943</v>
       </c>
       <c r="F10">
-        <v>24.67493449237152</v>
+        <v>29.65189972766114</v>
       </c>
       <c r="G10">
-        <v>2.063097849167914</v>
+        <v>3.655494676827001</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.6509668182328</v>
+        <v>16.08003737259162</v>
       </c>
       <c r="L10">
-        <v>5.097240231102777</v>
+        <v>9.067266452593687</v>
       </c>
       <c r="M10">
-        <v>18.32461796641934</v>
+        <v>18.27120600679472</v>
       </c>
       <c r="N10">
-        <v>11.7211057110182</v>
+        <v>18.23365338422957</v>
       </c>
       <c r="O10">
-        <v>18.97282041768687</v>
+        <v>26.26386272190527</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.8987841881792</v>
+        <v>13.23966793025767</v>
       </c>
       <c r="D11">
-        <v>4.659100502125075</v>
+        <v>5.988291752023856</v>
       </c>
       <c r="E11">
-        <v>9.319071691419158</v>
+        <v>13.27966356148642</v>
       </c>
       <c r="F11">
-        <v>25.23912546671067</v>
+        <v>29.68790031525246</v>
       </c>
       <c r="G11">
-        <v>2.05845851939506</v>
+        <v>3.653920708394852</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.45110950764712</v>
+        <v>16.36560062075381</v>
       </c>
       <c r="L11">
-        <v>5.081614061008464</v>
+        <v>9.05378258449185</v>
       </c>
       <c r="M11">
-        <v>18.98384770078071</v>
+        <v>18.40105803866345</v>
       </c>
       <c r="N11">
-        <v>11.59789467998054</v>
+        <v>18.19722731376843</v>
       </c>
       <c r="O11">
-        <v>19.26347915483235</v>
+        <v>26.24738729662308</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.01276149611607</v>
+        <v>13.2560001945702</v>
       </c>
       <c r="D12">
-        <v>4.675004353091972</v>
+        <v>5.992992273700875</v>
       </c>
       <c r="E12">
-        <v>9.369658899315993</v>
+        <v>13.27919241306568</v>
       </c>
       <c r="F12">
-        <v>25.45446948070578</v>
+        <v>29.70279274706497</v>
       </c>
       <c r="G12">
-        <v>2.05671318727471</v>
+        <v>3.653335884504668</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.74796787614751</v>
+        <v>16.47268751375622</v>
       </c>
       <c r="L12">
-        <v>5.076078143745904</v>
+        <v>9.048818015663523</v>
       </c>
       <c r="M12">
-        <v>19.22856767538751</v>
+        <v>18.45040443496225</v>
       </c>
       <c r="N12">
-        <v>11.55175470964192</v>
+        <v>18.18370765375074</v>
       </c>
       <c r="O12">
-        <v>19.37640442908571</v>
+        <v>26.2421451765791</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.9882369248485</v>
+        <v>13.25246473175203</v>
       </c>
       <c r="D13">
-        <v>4.671584405345263</v>
+        <v>5.991980758368634</v>
       </c>
       <c r="E13">
-        <v>9.358731053313294</v>
+        <v>13.27927748951679</v>
       </c>
       <c r="F13">
-        <v>25.40801699433242</v>
+        <v>29.69952946323395</v>
       </c>
       <c r="G13">
-        <v>2.057088585243645</v>
+        <v>3.653461339422705</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.68430573295301</v>
+        <v>16.44967263182592</v>
       </c>
       <c r="L13">
-        <v>5.077253148588089</v>
+        <v>9.049880936189355</v>
       </c>
       <c r="M13">
-        <v>19.17608018398532</v>
+        <v>18.43976964961407</v>
       </c>
       <c r="N13">
-        <v>11.5616686298115</v>
+        <v>18.18660717731726</v>
       </c>
       <c r="O13">
-        <v>19.35195607140984</v>
+        <v>26.24322978860883</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.90817122909045</v>
+        <v>13.24100346177292</v>
       </c>
       <c r="D14">
-        <v>4.660411268090807</v>
+        <v>5.988678837545085</v>
       </c>
       <c r="E14">
-        <v>9.323218663532334</v>
+        <v>13.27961741169183</v>
       </c>
       <c r="F14">
-        <v>25.25680836566887</v>
+        <v>29.68910031110179</v>
       </c>
       <c r="G14">
-        <v>2.058314706971916</v>
+        <v>3.653872370372055</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.47565474848917</v>
+        <v>16.37443230727645</v>
       </c>
       <c r="L14">
-        <v>5.081150869706988</v>
+        <v>9.053371312457784</v>
       </c>
       <c r="M14">
-        <v>19.00407901569872</v>
+        <v>18.40511451779763</v>
       </c>
       <c r="N14">
-        <v>11.5940882991559</v>
+        <v>18.19610955470509</v>
       </c>
       <c r="O14">
-        <v>19.27271202510886</v>
+        <v>26.2469360327302</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.85906369216268</v>
+        <v>13.23403603174607</v>
       </c>
       <c r="D15">
-        <v>4.653552206696935</v>
+        <v>5.986653914192723</v>
       </c>
       <c r="E15">
-        <v>9.301562932195068</v>
+        <v>13.2798736356768</v>
       </c>
       <c r="F15">
-        <v>25.16440747299961</v>
+        <v>29.68287603902145</v>
       </c>
       <c r="G15">
-        <v>2.05906719995539</v>
+        <v>3.65412559604455</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.34705317278659</v>
+        <v>16.32820589411664</v>
       </c>
       <c r="L15">
-        <v>5.083588543461616</v>
+        <v>9.055527685776839</v>
       </c>
       <c r="M15">
-        <v>18.89808554675325</v>
+        <v>18.38390883432878</v>
       </c>
       <c r="N15">
-        <v>11.61401390898367</v>
+        <v>18.20196570591105</v>
       </c>
       <c r="O15">
-        <v>19.22454644370475</v>
+        <v>26.24933610028892</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.57669212851748</v>
+        <v>13.19492717012234</v>
       </c>
       <c r="D16">
-        <v>4.614018428818294</v>
+        <v>5.975013856798571</v>
       </c>
       <c r="E16">
-        <v>9.178946203010637</v>
+        <v>13.28207818821685</v>
       </c>
       <c r="F16">
-        <v>24.63830509081684</v>
+        <v>29.6497236059777</v>
       </c>
       <c r="G16">
-        <v>2.063402714356094</v>
+        <v>3.655599110329119</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.59781198435251</v>
+        <v>16.06123353085122</v>
       </c>
       <c r="L16">
-        <v>5.09831382535997</v>
+        <v>9.068167467276663</v>
       </c>
       <c r="M16">
-        <v>18.28084341795286</v>
+        <v>18.26274628646943</v>
       </c>
       <c r="N16">
-        <v>11.72922980663759</v>
+        <v>18.23607231729925</v>
       </c>
       <c r="O16">
-        <v>18.95422279887102</v>
+        <v>26.26507876557988</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.40266091625827</v>
+        <v>13.17167352754829</v>
       </c>
       <c r="D17">
-        <v>4.589569129369727</v>
+        <v>5.967841733738574</v>
       </c>
       <c r="E17">
-        <v>9.1050516160635</v>
+        <v>13.28408789131205</v>
       </c>
       <c r="F17">
-        <v>24.31866844935491</v>
+        <v>29.6316354339342</v>
       </c>
       <c r="G17">
-        <v>2.066084173904969</v>
+        <v>3.656523081019205</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.12715282891526</v>
+        <v>15.89568980055196</v>
       </c>
       <c r="L17">
-        <v>5.108007502579514</v>
+        <v>9.076173836221074</v>
       </c>
       <c r="M17">
-        <v>17.89334326796189</v>
+        <v>18.188767256133</v>
       </c>
       <c r="N17">
-        <v>11.80082435128676</v>
+        <v>18.2574847573805</v>
       </c>
       <c r="O17">
-        <v>18.79343145271762</v>
+        <v>26.27650878955365</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.30228752622902</v>
+        <v>13.15857303873148</v>
       </c>
       <c r="D18">
-        <v>4.575436787968953</v>
+        <v>5.963705336906512</v>
       </c>
       <c r="E18">
-        <v>9.063038347452638</v>
+        <v>13.28548547527473</v>
       </c>
       <c r="F18">
-        <v>24.13599386574587</v>
+        <v>29.62205992798876</v>
       </c>
       <c r="G18">
-        <v>2.067634856412408</v>
+        <v>3.657061899542534</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.85236435413073</v>
+        <v>15.7998576171609</v>
       </c>
       <c r="L18">
-        <v>5.113820134392216</v>
+        <v>9.0808716817955</v>
       </c>
       <c r="M18">
-        <v>17.66718878009331</v>
+        <v>18.14635717864181</v>
       </c>
       <c r="N18">
-        <v>11.84233719690726</v>
+        <v>18.26998066563987</v>
       </c>
       <c r="O18">
-        <v>18.70278683801265</v>
+        <v>26.28373342391339</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.26825768489269</v>
+        <v>13.15418484601296</v>
       </c>
       <c r="D19">
-        <v>4.570640081803555</v>
+        <v>5.962302934922064</v>
       </c>
       <c r="E19">
-        <v>9.04889749055711</v>
+        <v>13.2860001859979</v>
       </c>
       <c r="F19">
-        <v>24.07434761828532</v>
+        <v>29.61896022230148</v>
       </c>
       <c r="G19">
-        <v>2.068161364878048</v>
+        <v>3.657245602681241</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.75862287996778</v>
+        <v>15.76730792608519</v>
       </c>
       <c r="L19">
-        <v>5.115828400799209</v>
+        <v>9.082478237115609</v>
       </c>
       <c r="M19">
-        <v>17.59005198750948</v>
+        <v>18.13202315628154</v>
       </c>
       <c r="N19">
-        <v>11.85644985039728</v>
+        <v>18.27424251441708</v>
       </c>
       <c r="O19">
-        <v>18.67241037993887</v>
+        <v>26.28629116790863</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.42121581940457</v>
+        <v>13.17412058625401</v>
       </c>
       <c r="D20">
-        <v>4.592179075163305</v>
+        <v>5.968606383143894</v>
       </c>
       <c r="E20">
-        <v>9.112867249441711</v>
+        <v>13.28384894657745</v>
       </c>
       <c r="F20">
-        <v>24.3525737103857</v>
+        <v>29.63347525324557</v>
       </c>
       <c r="G20">
-        <v>2.065797869283229</v>
+        <v>3.656423959896759</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.17767674629105</v>
+        <v>15.91337670279541</v>
       </c>
       <c r="L20">
-        <v>5.106950934459024</v>
+        <v>9.075311942671796</v>
       </c>
       <c r="M20">
-        <v>17.93493167402094</v>
+        <v>18.19662815780402</v>
       </c>
       <c r="N20">
-        <v>11.79316842553201</v>
+        <v>18.25518673960934</v>
       </c>
       <c r="O20">
-        <v>18.81035735862706</v>
+        <v>26.27522470849751</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.9317020977484</v>
+        <v>13.24435890226001</v>
       </c>
       <c r="D21">
-        <v>4.663696268605345</v>
+        <v>5.989649194041158</v>
       </c>
       <c r="E21">
-        <v>9.333629380103954</v>
+        <v>13.27950756358004</v>
       </c>
       <c r="F21">
-        <v>25.30117654418401</v>
+        <v>29.6921294636895</v>
       </c>
       <c r="G21">
-        <v>2.057954263722914</v>
+        <v>3.653751337012432</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.53710650121388</v>
+        <v>16.39656146233527</v>
       </c>
       <c r="L21">
-        <v>5.079995518389154</v>
+        <v>9.052342266700842</v>
       </c>
       <c r="M21">
-        <v>19.05473269487286</v>
+        <v>18.41528913821798</v>
       </c>
       <c r="N21">
-        <v>11.58455174716791</v>
+        <v>18.19331104391268</v>
       </c>
       <c r="O21">
-        <v>19.29590996643616</v>
+        <v>26.24582034639141</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.26247857130497</v>
+        <v>13.29264098754763</v>
       </c>
       <c r="D22">
-        <v>4.709763576490143</v>
+        <v>6.003295291664204</v>
       </c>
       <c r="E22">
-        <v>9.482238802165824</v>
+        <v>13.27881943809935</v>
       </c>
       <c r="F22">
-        <v>25.93100943915165</v>
+        <v>29.73780295542715</v>
       </c>
       <c r="G22">
-        <v>2.052894310975724</v>
+        <v>3.652069901095459</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.38983623854666</v>
+        <v>16.70619146006565</v>
       </c>
       <c r="L22">
-        <v>5.064610615172641</v>
+        <v>9.038154787060995</v>
       </c>
       <c r="M22">
-        <v>19.75797299989189</v>
+        <v>18.55919512038723</v>
       </c>
       <c r="N22">
-        <v>11.45122945171298</v>
+        <v>18.15446898968679</v>
       </c>
       <c r="O22">
-        <v>19.62993233484476</v>
+        <v>26.23241378802473</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.08621490573232</v>
+        <v>13.26665773465508</v>
       </c>
       <c r="D23">
-        <v>4.685240642012254</v>
+        <v>5.996022206741554</v>
       </c>
       <c r="E23">
-        <v>9.402528006289327</v>
+        <v>13.27899021523271</v>
       </c>
       <c r="F23">
-        <v>25.59397665437366</v>
+        <v>29.71275665977014</v>
       </c>
       <c r="G23">
-        <v>2.055589258004258</v>
+        <v>3.652961361267328</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.93795924804058</v>
+        <v>16.54153068981238</v>
       </c>
       <c r="L23">
-        <v>5.07261147673554</v>
+        <v>9.045651552895052</v>
       </c>
       <c r="M23">
-        <v>19.38523132118124</v>
+        <v>18.48231075124683</v>
       </c>
       <c r="N23">
-        <v>11.52210669767468</v>
+        <v>18.17505385544157</v>
       </c>
       <c r="O23">
-        <v>19.45011662586262</v>
+        <v>26.23903659613148</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.41282814117553</v>
+        <v>13.17301343445677</v>
       </c>
       <c r="D24">
-        <v>4.590999355156629</v>
+        <v>5.968260725693431</v>
       </c>
       <c r="E24">
-        <v>9.109332338214838</v>
+        <v>13.28395621910358</v>
       </c>
       <c r="F24">
-        <v>24.3372417437124</v>
+        <v>29.63264090497795</v>
       </c>
       <c r="G24">
-        <v>2.065927279244588</v>
+        <v>3.656468748830343</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.1548479723548</v>
+        <v>15.90538249882276</v>
       </c>
       <c r="L24">
-        <v>5.107427863886213</v>
+        <v>9.075701309185344</v>
       </c>
       <c r="M24">
-        <v>17.91614007547855</v>
+        <v>18.19307386298533</v>
       </c>
       <c r="N24">
-        <v>11.79662857306937</v>
+        <v>18.25622509518365</v>
       </c>
       <c r="O24">
-        <v>18.80269956450757</v>
+        <v>26.27580320653386</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.67633134349361</v>
+        <v>13.0825255152478</v>
       </c>
       <c r="D25">
-        <v>4.486712487829789</v>
+        <v>5.937892023222382</v>
       </c>
       <c r="E25">
-        <v>8.811787259103012</v>
+        <v>13.29855159311502</v>
       </c>
       <c r="F25">
-        <v>23.0269473407281</v>
+        <v>29.5778975297392</v>
       </c>
       <c r="G25">
-        <v>2.077402950680309</v>
+        <v>3.660534244152554</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.07527556224108</v>
+        <v>15.19613305164122</v>
       </c>
       <c r="L25">
-        <v>5.153987676162497</v>
+        <v>9.111663693543891</v>
       </c>
       <c r="M25">
-        <v>16.37276009653637</v>
+        <v>17.88661287983776</v>
       </c>
       <c r="N25">
-        <v>12.1054904340885</v>
+        <v>18.35066863641369</v>
       </c>
       <c r="O25">
-        <v>18.17440379417112</v>
+        <v>26.34031070760599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.02524186462899</v>
+        <v>10.12828460350398</v>
       </c>
       <c r="D2">
-        <v>5.915200010421848</v>
+        <v>4.407949433271019</v>
       </c>
       <c r="E2">
-        <v>13.31724460201748</v>
+        <v>8.608895960692349</v>
       </c>
       <c r="F2">
-        <v>29.56490511193664</v>
+        <v>22.10483117686444</v>
       </c>
       <c r="G2">
-        <v>3.663773078584197</v>
+        <v>2.086173302634712</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.65813805415564</v>
+        <v>18.40667647178991</v>
       </c>
       <c r="L2">
-        <v>9.141208926191613</v>
+        <v>5.195436816239895</v>
       </c>
       <c r="M2">
-        <v>17.66702338506492</v>
+        <v>15.27158716743654</v>
       </c>
       <c r="N2">
-        <v>18.42617641486155</v>
+        <v>12.3437691487844</v>
       </c>
       <c r="O2">
-        <v>26.40903883920713</v>
+        <v>17.76985119480664</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.99237485270437</v>
+        <v>9.755226524955741</v>
       </c>
       <c r="D3">
-        <v>5.899631175168965</v>
+        <v>4.353494236095961</v>
       </c>
       <c r="E3">
-        <v>13.33486589885283</v>
+        <v>8.481521372195486</v>
       </c>
       <c r="F3">
-        <v>29.57313151650409</v>
+        <v>21.50863927159797</v>
       </c>
       <c r="G3">
-        <v>3.666122533740872</v>
+        <v>2.092336234068086</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.28602164749289</v>
+        <v>17.1887284219553</v>
       </c>
       <c r="L3">
-        <v>9.163151964872025</v>
+        <v>5.227738196314682</v>
       </c>
       <c r="M3">
-        <v>17.52263150501424</v>
+        <v>14.49062244192472</v>
       </c>
       <c r="N3">
-        <v>18.48109611978033</v>
+        <v>12.51203035109111</v>
       </c>
       <c r="O3">
-        <v>26.4687764412782</v>
+        <v>17.5305334797027</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.97516797331814</v>
+        <v>9.526144121667752</v>
       </c>
       <c r="D4">
-        <v>5.88998372741167</v>
+        <v>4.319583072436401</v>
       </c>
       <c r="E4">
-        <v>13.34812599058976</v>
+        <v>8.408301893848094</v>
       </c>
       <c r="F4">
-        <v>29.58656884987664</v>
+        <v>21.15747421156017</v>
       </c>
       <c r="G4">
-        <v>3.667641749796249</v>
+        <v>2.096234216740835</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.05469630478319</v>
+        <v>16.39751379199836</v>
       </c>
       <c r="L4">
-        <v>9.177574510438511</v>
+        <v>5.249569622705708</v>
       </c>
       <c r="M4">
-        <v>17.43636932123779</v>
+        <v>13.99523040607637</v>
       </c>
       <c r="N4">
-        <v>18.51667331269724</v>
+        <v>12.61869657221731</v>
       </c>
       <c r="O4">
-        <v>26.5119151841128</v>
+        <v>17.40022737856279</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.96890880998883</v>
+        <v>9.432917454035506</v>
       </c>
       <c r="D5">
-        <v>5.88603107484191</v>
+        <v>4.30565324653132</v>
       </c>
       <c r="E5">
-        <v>13.35414286991662</v>
+        <v>8.379716196922498</v>
       </c>
       <c r="F5">
-        <v>29.59415043907299</v>
+        <v>21.01822412962457</v>
       </c>
       <c r="G5">
-        <v>3.66828017758675</v>
+        <v>2.09785212498596</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.95985243191095</v>
+        <v>16.06412241662402</v>
       </c>
       <c r="L5">
-        <v>9.183690895368722</v>
+        <v>5.258957559621678</v>
       </c>
       <c r="M5">
-        <v>17.40185059057594</v>
+        <v>13.78959144166075</v>
       </c>
       <c r="N5">
-        <v>18.53163917370285</v>
+        <v>12.66300910736581</v>
       </c>
       <c r="O5">
-        <v>26.53111397817484</v>
+        <v>17.35121638144654</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.96791507913725</v>
+        <v>9.417448929023701</v>
       </c>
       <c r="D6">
-        <v>5.885373483848872</v>
+        <v>4.303333781778804</v>
       </c>
       <c r="E6">
-        <v>13.35517899421632</v>
+        <v>8.375045032685877</v>
       </c>
       <c r="F6">
-        <v>29.59553642367025</v>
+        <v>20.99533733554347</v>
       </c>
       <c r="G6">
-        <v>3.66838735766643</v>
+        <v>2.098122578795283</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.94407300918116</v>
+        <v>16.00809929905552</v>
       </c>
       <c r="L6">
-        <v>9.184720966300771</v>
+        <v>5.260545792254897</v>
       </c>
       <c r="M6">
-        <v>17.39615796287288</v>
+        <v>13.75522554101736</v>
       </c>
       <c r="N6">
-        <v>18.53415253385818</v>
+        <v>12.67041829178697</v>
       </c>
       <c r="O6">
-        <v>26.5343995799776</v>
+        <v>17.34332218034294</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.97508050597476</v>
+        <v>9.524886140576621</v>
       </c>
       <c r="D7">
-        <v>5.889930505355516</v>
+        <v>4.319395646580261</v>
       </c>
       <c r="E7">
-        <v>13.34820465381185</v>
+        <v>8.407911314285847</v>
       </c>
       <c r="F7">
-        <v>29.58666257674967</v>
+        <v>21.15558050483729</v>
       </c>
       <c r="G7">
-        <v>3.667650281486788</v>
+        <v>2.096255916145948</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.0534193553328</v>
+        <v>16.39306202413153</v>
       </c>
       <c r="L7">
-        <v>9.177656029667352</v>
+        <v>5.24969425590219</v>
       </c>
       <c r="M7">
-        <v>17.43590118242889</v>
+        <v>13.99247198737245</v>
       </c>
       <c r="N7">
-        <v>18.51687325171448</v>
+        <v>12.61929076114306</v>
       </c>
       <c r="O7">
-        <v>26.51216755568474</v>
+        <v>17.39954997229646</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.01329540126471</v>
+        <v>9.999734794884626</v>
       </c>
       <c r="D8">
-        <v>5.909850715689705</v>
+        <v>4.389277172885523</v>
       </c>
       <c r="E8">
-        <v>13.32281368316003</v>
+        <v>8.563940957961666</v>
       </c>
       <c r="F8">
-        <v>29.56599958484291</v>
+        <v>21.89623805832817</v>
       </c>
       <c r="G8">
-        <v>3.664567301780195</v>
+        <v>2.088275134198394</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.53050349503874</v>
+        <v>17.99569897379278</v>
       </c>
       <c r="L8">
-        <v>9.148578034818193</v>
+        <v>5.206152756387042</v>
       </c>
       <c r="M8">
-        <v>17.61675923770903</v>
+        <v>15.00573054487605</v>
       </c>
       <c r="N8">
-        <v>18.44472811461923</v>
+        <v>12.40109061808657</v>
       </c>
       <c r="O8">
-        <v>26.42829283096368</v>
+        <v>17.68382925919783</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.11157375839522</v>
+        <v>10.92554428014109</v>
       </c>
       <c r="D9">
-        <v>5.948175496848202</v>
+        <v>4.52216882845607</v>
       </c>
       <c r="E9">
-        <v>13.29240049633209</v>
+        <v>8.909507274248817</v>
       </c>
       <c r="F9">
-        <v>29.5920971375758</v>
+        <v>23.46196818884414</v>
       </c>
       <c r="G9">
-        <v>3.659126831806954</v>
+        <v>2.073490171812062</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.43778517521276</v>
+        <v>20.79693266665875</v>
       </c>
       <c r="L9">
-        <v>9.099074335699649</v>
+        <v>5.137153898273549</v>
       </c>
       <c r="M9">
-        <v>17.98899112012525</v>
+        <v>16.85872868491381</v>
       </c>
       <c r="N9">
-        <v>18.31793098487695</v>
+        <v>11.9997588206026</v>
       </c>
       <c r="O9">
-        <v>26.31527295611915</v>
+        <v>18.37686820117327</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.19761753572336</v>
+        <v>11.59651144590777</v>
       </c>
       <c r="D10">
-        <v>5.975830706916745</v>
+        <v>4.6167986298515</v>
       </c>
       <c r="E10">
-        <v>13.28188160515943</v>
+        <v>9.187444241510233</v>
       </c>
       <c r="F10">
-        <v>29.65189972766114</v>
+        <v>24.67493449237147</v>
       </c>
       <c r="G10">
-        <v>3.655494676827001</v>
+        <v>2.063097849167645</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.08003737259162</v>
+        <v>22.65096681823282</v>
       </c>
       <c r="L10">
-        <v>9.067266452593687</v>
+        <v>5.097240231102776</v>
       </c>
       <c r="M10">
-        <v>18.27120600679472</v>
+        <v>18.32461796641936</v>
       </c>
       <c r="N10">
-        <v>18.23365338422957</v>
+        <v>11.72110571101817</v>
       </c>
       <c r="O10">
-        <v>26.26386272190527</v>
+        <v>18.97282041768685</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.23966793025767</v>
+        <v>11.89878418817915</v>
       </c>
       <c r="D11">
-        <v>5.988291752023856</v>
+        <v>4.659100502125136</v>
       </c>
       <c r="E11">
-        <v>13.27966356148642</v>
+        <v>9.31907169141911</v>
       </c>
       <c r="F11">
-        <v>29.68790031525246</v>
+        <v>25.23912546671065</v>
       </c>
       <c r="G11">
-        <v>3.653920708394852</v>
+        <v>2.058458519395197</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.36560062075381</v>
+        <v>23.45110950764715</v>
       </c>
       <c r="L11">
-        <v>9.05378258449185</v>
+        <v>5.081614061008457</v>
       </c>
       <c r="M11">
-        <v>18.40105803866345</v>
+        <v>18.98384770078076</v>
       </c>
       <c r="N11">
-        <v>18.19722731376843</v>
+        <v>11.59789467998054</v>
       </c>
       <c r="O11">
-        <v>26.24738729662308</v>
+        <v>19.26347915483233</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.2560001945702</v>
+        <v>12.01276149611607</v>
       </c>
       <c r="D12">
-        <v>5.992992273700875</v>
+        <v>4.675004353091983</v>
       </c>
       <c r="E12">
-        <v>13.27919241306568</v>
+        <v>9.369658899316036</v>
       </c>
       <c r="F12">
-        <v>29.70279274706497</v>
+        <v>25.45446948070577</v>
       </c>
       <c r="G12">
-        <v>3.653335884504668</v>
+        <v>2.056713187274841</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.47268751375622</v>
+        <v>23.74796787614749</v>
       </c>
       <c r="L12">
-        <v>9.048818015663523</v>
+        <v>5.076078143745963</v>
       </c>
       <c r="M12">
-        <v>18.45040443496225</v>
+        <v>19.22856767538749</v>
       </c>
       <c r="N12">
-        <v>18.18370765375074</v>
+        <v>11.55175470964186</v>
       </c>
       <c r="O12">
-        <v>26.2421451765791</v>
+        <v>19.3764044290857</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.25246473175203</v>
+        <v>11.98823692484862</v>
       </c>
       <c r="D13">
-        <v>5.991980758368634</v>
+        <v>4.671584405345154</v>
       </c>
       <c r="E13">
-        <v>13.27927748951679</v>
+        <v>9.358731053313312</v>
       </c>
       <c r="F13">
-        <v>29.69952946323395</v>
+        <v>25.40801699433239</v>
       </c>
       <c r="G13">
-        <v>3.653461339422705</v>
+        <v>2.057088585243646</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.44967263182592</v>
+        <v>23.68430573295306</v>
       </c>
       <c r="L13">
-        <v>9.049880936189355</v>
+        <v>5.077253148588033</v>
       </c>
       <c r="M13">
-        <v>18.43976964961407</v>
+        <v>19.17608018398537</v>
       </c>
       <c r="N13">
-        <v>18.18660717731726</v>
+        <v>11.56166862981143</v>
       </c>
       <c r="O13">
-        <v>26.24322978860883</v>
+        <v>19.35195607140978</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.24100346177292</v>
+        <v>11.90817122909042</v>
       </c>
       <c r="D14">
-        <v>5.988678837545085</v>
+        <v>4.660411268090987</v>
       </c>
       <c r="E14">
-        <v>13.27961741169183</v>
+        <v>9.323218663532371</v>
       </c>
       <c r="F14">
-        <v>29.68910031110179</v>
+        <v>25.2568083656689</v>
       </c>
       <c r="G14">
-        <v>3.653872370372055</v>
+        <v>2.058314706972052</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.37443230727645</v>
+        <v>23.47565474848913</v>
       </c>
       <c r="L14">
-        <v>9.053371312457784</v>
+        <v>5.081150869706988</v>
       </c>
       <c r="M14">
-        <v>18.40511451779763</v>
+        <v>19.00407901569869</v>
       </c>
       <c r="N14">
-        <v>18.19610955470509</v>
+        <v>11.5940882991559</v>
       </c>
       <c r="O14">
-        <v>26.2469360327302</v>
+        <v>19.27271202510891</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.23403603174607</v>
+        <v>11.85906369216263</v>
       </c>
       <c r="D15">
-        <v>5.986653914192723</v>
+        <v>4.653552206696927</v>
       </c>
       <c r="E15">
-        <v>13.2798736356768</v>
+        <v>9.301562932195068</v>
       </c>
       <c r="F15">
-        <v>29.68287603902145</v>
+        <v>25.16440747299957</v>
       </c>
       <c r="G15">
-        <v>3.65412559604455</v>
+        <v>2.059067199955524</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.32820589411664</v>
+        <v>23.34705317278656</v>
       </c>
       <c r="L15">
-        <v>9.055527685776839</v>
+        <v>5.083588543461671</v>
       </c>
       <c r="M15">
-        <v>18.38390883432878</v>
+        <v>18.89808554675322</v>
       </c>
       <c r="N15">
-        <v>18.20196570591105</v>
+        <v>11.61401390898367</v>
       </c>
       <c r="O15">
-        <v>26.24933610028892</v>
+        <v>19.22454644370474</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.19492717012234</v>
+        <v>11.57669212851751</v>
       </c>
       <c r="D16">
-        <v>5.975013856798571</v>
+        <v>4.614018428818303</v>
       </c>
       <c r="E16">
-        <v>13.28207818821685</v>
+        <v>9.178946203010534</v>
       </c>
       <c r="F16">
-        <v>29.6497236059777</v>
+        <v>24.63830509081694</v>
       </c>
       <c r="G16">
-        <v>3.655599110329119</v>
+        <v>2.06340271435623</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.06123353085122</v>
+        <v>22.59781198435246</v>
       </c>
       <c r="L16">
-        <v>9.068167467276663</v>
+        <v>5.098313825359886</v>
       </c>
       <c r="M16">
-        <v>18.26274628646943</v>
+        <v>18.28084341795286</v>
       </c>
       <c r="N16">
-        <v>18.23607231729925</v>
+        <v>11.72922980663763</v>
       </c>
       <c r="O16">
-        <v>26.26507876557988</v>
+        <v>18.9542227988711</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.17167352754829</v>
+        <v>11.4026609162583</v>
       </c>
       <c r="D17">
-        <v>5.967841733738574</v>
+        <v>4.589569129369778</v>
       </c>
       <c r="E17">
-        <v>13.28408789131205</v>
+        <v>9.105051616063504</v>
       </c>
       <c r="F17">
-        <v>29.6316354339342</v>
+        <v>24.31866844935483</v>
       </c>
       <c r="G17">
-        <v>3.656523081019205</v>
+        <v>2.066084173904969</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.89568980055196</v>
+        <v>22.12715282891532</v>
       </c>
       <c r="L17">
-        <v>9.076173836221074</v>
+        <v>5.108007502579481</v>
       </c>
       <c r="M17">
-        <v>18.188767256133</v>
+        <v>17.89334326796192</v>
       </c>
       <c r="N17">
-        <v>18.2574847573805</v>
+        <v>11.80082435128669</v>
       </c>
       <c r="O17">
-        <v>26.27650878955365</v>
+        <v>18.79343145271751</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.15857303873148</v>
+        <v>11.302287526229</v>
       </c>
       <c r="D18">
-        <v>5.963705336906512</v>
+        <v>4.575436787968838</v>
       </c>
       <c r="E18">
-        <v>13.28548547527473</v>
+        <v>9.063038347452688</v>
       </c>
       <c r="F18">
-        <v>29.62205992798876</v>
+        <v>24.13599386574582</v>
       </c>
       <c r="G18">
-        <v>3.657061899542534</v>
+        <v>2.067634856412272</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.7998576171609</v>
+        <v>21.85236435413078</v>
       </c>
       <c r="L18">
-        <v>9.0808716817955</v>
+        <v>5.113820134392304</v>
       </c>
       <c r="M18">
-        <v>18.14635717864181</v>
+        <v>17.66718878009334</v>
       </c>
       <c r="N18">
-        <v>18.26998066563987</v>
+        <v>11.84233719690726</v>
       </c>
       <c r="O18">
-        <v>26.28373342391339</v>
+        <v>18.70278683801257</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.15418484601296</v>
+        <v>11.26825768489258</v>
       </c>
       <c r="D19">
-        <v>5.962302934922064</v>
+        <v>4.57064008180362</v>
       </c>
       <c r="E19">
-        <v>13.2860001859979</v>
+        <v>9.048897490557074</v>
       </c>
       <c r="F19">
-        <v>29.61896022230148</v>
+        <v>24.0743476182853</v>
       </c>
       <c r="G19">
-        <v>3.657245602681241</v>
+        <v>2.068161364877915</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.76730792608519</v>
+        <v>21.75862287996773</v>
       </c>
       <c r="L19">
-        <v>9.082478237115609</v>
+        <v>5.115828400799241</v>
       </c>
       <c r="M19">
-        <v>18.13202315628154</v>
+        <v>17.59005198750946</v>
       </c>
       <c r="N19">
-        <v>18.27424251441708</v>
+        <v>11.85644985039728</v>
       </c>
       <c r="O19">
-        <v>26.28629116790863</v>
+        <v>18.6724103799389</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.17412058625401</v>
+        <v>11.42121581940456</v>
       </c>
       <c r="D20">
-        <v>5.968606383143894</v>
+        <v>4.59217907516337</v>
       </c>
       <c r="E20">
-        <v>13.28384894657745</v>
+        <v>9.112867249441724</v>
       </c>
       <c r="F20">
-        <v>29.63347525324557</v>
+        <v>24.35257371038559</v>
       </c>
       <c r="G20">
-        <v>3.656423959896759</v>
+        <v>2.065797869282963</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.91337670279541</v>
+        <v>22.1776767462911</v>
       </c>
       <c r="L20">
-        <v>9.075311942671796</v>
+        <v>5.106950934459086</v>
       </c>
       <c r="M20">
-        <v>18.19662815780402</v>
+        <v>17.93493167402097</v>
       </c>
       <c r="N20">
-        <v>18.25518673960934</v>
+        <v>11.79316842553198</v>
       </c>
       <c r="O20">
-        <v>26.27522470849751</v>
+        <v>18.81035735862698</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.24435890226001</v>
+        <v>11.93170209774845</v>
       </c>
       <c r="D21">
-        <v>5.989649194041158</v>
+        <v>4.663696268605305</v>
       </c>
       <c r="E21">
-        <v>13.27950756358004</v>
+        <v>9.333629380104028</v>
       </c>
       <c r="F21">
-        <v>29.6921294636895</v>
+        <v>25.301176544184</v>
       </c>
       <c r="G21">
-        <v>3.653751337012432</v>
+        <v>2.05795426372318</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.39656146233527</v>
+        <v>23.53710650121395</v>
       </c>
       <c r="L21">
-        <v>9.052342266700842</v>
+        <v>5.079995518389166</v>
       </c>
       <c r="M21">
-        <v>18.41528913821798</v>
+        <v>19.05473269487289</v>
       </c>
       <c r="N21">
-        <v>18.19331104391268</v>
+        <v>11.58455174716787</v>
       </c>
       <c r="O21">
-        <v>26.24582034639141</v>
+        <v>19.29590996643611</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.29264098754763</v>
+        <v>12.26247857130509</v>
       </c>
       <c r="D22">
-        <v>6.003295291664204</v>
+        <v>4.709763576490152</v>
       </c>
       <c r="E22">
-        <v>13.27881943809935</v>
+        <v>9.48223880216589</v>
       </c>
       <c r="F22">
-        <v>29.73780295542715</v>
+        <v>25.9310094391517</v>
       </c>
       <c r="G22">
-        <v>3.652069901095459</v>
+        <v>2.052894310975994</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.70619146006565</v>
+        <v>24.38983623854667</v>
       </c>
       <c r="L22">
-        <v>9.038154787060995</v>
+        <v>5.064610615172641</v>
       </c>
       <c r="M22">
-        <v>18.55919512038723</v>
+        <v>19.75797299989191</v>
       </c>
       <c r="N22">
-        <v>18.15446898968679</v>
+        <v>11.45122945171297</v>
       </c>
       <c r="O22">
-        <v>26.23241378802473</v>
+        <v>19.62993233484478</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.26665773465508</v>
+        <v>12.08621490573232</v>
       </c>
       <c r="D23">
-        <v>5.996022206741554</v>
+        <v>4.685240642012196</v>
       </c>
       <c r="E23">
-        <v>13.27899021523271</v>
+        <v>9.40252800628936</v>
       </c>
       <c r="F23">
-        <v>29.71275665977014</v>
+        <v>25.59397665437365</v>
       </c>
       <c r="G23">
-        <v>3.652961361267328</v>
+        <v>2.055589258004527</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.54153068981238</v>
+        <v>23.93795924804056</v>
       </c>
       <c r="L23">
-        <v>9.045651552895052</v>
+        <v>5.072611476735543</v>
       </c>
       <c r="M23">
-        <v>18.48231075124683</v>
+        <v>19.38523132118123</v>
       </c>
       <c r="N23">
-        <v>18.17505385544157</v>
+        <v>11.52210669767468</v>
       </c>
       <c r="O23">
-        <v>26.23903659613148</v>
+        <v>19.45011662586263</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.17301343445677</v>
+        <v>11.41282814117552</v>
       </c>
       <c r="D24">
-        <v>5.968260725693431</v>
+        <v>4.590999355156696</v>
       </c>
       <c r="E24">
-        <v>13.28395621910358</v>
+        <v>9.109332338214866</v>
       </c>
       <c r="F24">
-        <v>29.63264090497795</v>
+        <v>24.33724174371221</v>
       </c>
       <c r="G24">
-        <v>3.656468748830343</v>
+        <v>2.06592727924459</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.90538249882276</v>
+        <v>22.15484797235491</v>
       </c>
       <c r="L24">
-        <v>9.075701309185344</v>
+        <v>5.107427863886246</v>
       </c>
       <c r="M24">
-        <v>18.19307386298533</v>
+        <v>17.91614007547863</v>
       </c>
       <c r="N24">
-        <v>18.25622509518365</v>
+        <v>11.79662857306924</v>
       </c>
       <c r="O24">
-        <v>26.27580320653386</v>
+        <v>18.8026995645074</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.0825255152478</v>
+        <v>10.67633134349361</v>
       </c>
       <c r="D25">
-        <v>5.937892023222382</v>
+        <v>4.486712487829664</v>
       </c>
       <c r="E25">
-        <v>13.29855159311502</v>
+        <v>8.811787259102974</v>
       </c>
       <c r="F25">
-        <v>29.5778975297392</v>
+        <v>23.02694734072806</v>
       </c>
       <c r="G25">
-        <v>3.660534244152554</v>
+        <v>2.077402950680443</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.19613305164122</v>
+        <v>20.07527556224112</v>
       </c>
       <c r="L25">
-        <v>9.111663693543891</v>
+        <v>5.153987676162439</v>
       </c>
       <c r="M25">
-        <v>17.88661287983776</v>
+        <v>16.37276009653635</v>
       </c>
       <c r="N25">
-        <v>18.35066863641369</v>
+        <v>12.10549043408846</v>
       </c>
       <c r="O25">
-        <v>26.34031070760599</v>
+        <v>18.17440379417104</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.12828460350398</v>
+        <v>3.232169986667397</v>
       </c>
       <c r="D2">
-        <v>4.407949433271019</v>
+        <v>6.620074273154672</v>
       </c>
       <c r="E2">
-        <v>8.608895960692349</v>
+        <v>11.46378490327479</v>
       </c>
       <c r="F2">
-        <v>22.10483117686444</v>
+        <v>29.65962827643088</v>
       </c>
       <c r="G2">
-        <v>2.086173302634712</v>
+        <v>36.63506686569256</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.579354099815714</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.001113536790574</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.80369486122818</v>
       </c>
       <c r="K2">
-        <v>18.40667647178991</v>
+        <v>20.24271285332704</v>
       </c>
       <c r="L2">
-        <v>5.195436816239895</v>
+        <v>7.345420439135027</v>
       </c>
       <c r="M2">
-        <v>15.27158716743654</v>
+        <v>21.24580969832827</v>
       </c>
       <c r="N2">
-        <v>12.3437691487844</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>17.76985119480664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.47372238332152</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.755226524955741</v>
+        <v>2.990184557675778</v>
       </c>
       <c r="D3">
-        <v>4.353494236095961</v>
+        <v>6.306852502732011</v>
       </c>
       <c r="E3">
-        <v>8.481521372195486</v>
+        <v>10.9038762763778</v>
       </c>
       <c r="F3">
-        <v>21.50863927159797</v>
+        <v>28.67236239928686</v>
       </c>
       <c r="G3">
-        <v>2.092336234068086</v>
+        <v>35.24640976106081</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.854693858459909</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.774770933444033</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.62854388433754</v>
       </c>
       <c r="K3">
-        <v>17.1887284219553</v>
+        <v>19.68156342055549</v>
       </c>
       <c r="L3">
-        <v>5.227738196314682</v>
+        <v>7.103138874868908</v>
       </c>
       <c r="M3">
-        <v>14.49062244192472</v>
+        <v>19.84455655541024</v>
       </c>
       <c r="N3">
-        <v>12.51203035109111</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>17.5305334797027</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.58894282549903</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.526144121667752</v>
+        <v>2.828919724371468</v>
       </c>
       <c r="D4">
-        <v>4.319583072436401</v>
+        <v>6.10776243559006</v>
       </c>
       <c r="E4">
-        <v>8.408301893848094</v>
+        <v>10.54571085552399</v>
       </c>
       <c r="F4">
-        <v>21.15747421156017</v>
+        <v>28.05680890893835</v>
       </c>
       <c r="G4">
-        <v>2.096234216740835</v>
+        <v>34.37786793192384</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.029663188511455</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.631521690060258</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.52294036740311</v>
       </c>
       <c r="K4">
-        <v>16.39751379199836</v>
+        <v>19.33206923026595</v>
       </c>
       <c r="L4">
-        <v>5.249569622705708</v>
+        <v>6.949457264735555</v>
       </c>
       <c r="M4">
-        <v>13.99523040607637</v>
+        <v>18.9655636783922</v>
       </c>
       <c r="N4">
-        <v>12.61869657221731</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>17.40022737856279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.66205110165705</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.432917454035506</v>
+        <v>2.746942321233266</v>
       </c>
       <c r="D5">
-        <v>4.30565324653132</v>
+        <v>6.027490913263208</v>
       </c>
       <c r="E5">
-        <v>8.379716196922498</v>
+        <v>10.39707659557009</v>
       </c>
       <c r="F5">
-        <v>21.01822412962457</v>
+        <v>27.79266195364811</v>
       </c>
       <c r="G5">
-        <v>2.09785212498596</v>
+        <v>33.99998518869006</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.10290976024883</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.572374253564276</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.47663519142711</v>
       </c>
       <c r="K5">
-        <v>16.06412241662402</v>
+        <v>19.17700397061204</v>
       </c>
       <c r="L5">
-        <v>5.258957559621678</v>
+        <v>6.885174213085987</v>
       </c>
       <c r="M5">
-        <v>13.78959144166075</v>
+        <v>18.59012807111809</v>
       </c>
       <c r="N5">
-        <v>12.66300910736581</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>17.35121638144654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.69307761150176</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.417448929023701</v>
+        <v>2.717244484225374</v>
       </c>
       <c r="D6">
-        <v>4.303333781778804</v>
+        <v>6.017116381827056</v>
       </c>
       <c r="E6">
-        <v>8.375045032685877</v>
+        <v>10.37322668563721</v>
       </c>
       <c r="F6">
-        <v>20.99533733554347</v>
+        <v>27.7349385219334</v>
       </c>
       <c r="G6">
-        <v>2.098122578795283</v>
+        <v>33.91211722435219</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.115691676502477</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.563091168624895</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.46436456836246</v>
       </c>
       <c r="K6">
-        <v>16.00809929905552</v>
+        <v>19.13706797913675</v>
       </c>
       <c r="L6">
-        <v>5.260545792254897</v>
+        <v>6.873870452068301</v>
       </c>
       <c r="M6">
-        <v>13.75522554101736</v>
+        <v>18.5208508207575</v>
       </c>
       <c r="N6">
-        <v>12.67041829178697</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>17.34332218034294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.69906217167425</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.524886140576621</v>
+        <v>2.785546556171273</v>
       </c>
       <c r="D7">
-        <v>4.319395646580261</v>
+        <v>6.11487770113792</v>
       </c>
       <c r="E7">
-        <v>8.407911314285847</v>
+        <v>10.54651649486819</v>
       </c>
       <c r="F7">
-        <v>21.15558050483729</v>
+        <v>28.01611611994105</v>
       </c>
       <c r="G7">
-        <v>2.096255916145948</v>
+        <v>34.30555459561656</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.032070655069059</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.631929075483686</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.50977568856569</v>
       </c>
       <c r="K7">
-        <v>16.39306202413153</v>
+        <v>19.29171885272167</v>
       </c>
       <c r="L7">
-        <v>5.24969425590219</v>
+        <v>6.947091151232021</v>
       </c>
       <c r="M7">
-        <v>13.99247198737245</v>
+        <v>18.94398930443618</v>
       </c>
       <c r="N7">
-        <v>12.61929076114306</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>17.39954997229646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.66471928530556</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.999734794884626</v>
+        <v>3.100112020679658</v>
       </c>
       <c r="D8">
-        <v>4.389277172885523</v>
+        <v>6.523745457216773</v>
       </c>
       <c r="E8">
-        <v>8.563940957961666</v>
+        <v>11.27725326883089</v>
       </c>
       <c r="F8">
-        <v>21.89623805832817</v>
+        <v>29.2740678662825</v>
       </c>
       <c r="G8">
-        <v>2.088275134198394</v>
+        <v>36.07466277636148</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.674907712255553</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.924730059937688</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.72660773494006</v>
       </c>
       <c r="K8">
-        <v>17.99569897379278</v>
+        <v>20.00124595649406</v>
       </c>
       <c r="L8">
-        <v>5.206152756387042</v>
+        <v>7.261025023355155</v>
       </c>
       <c r="M8">
-        <v>15.00573054487605</v>
+        <v>20.74719700894478</v>
       </c>
       <c r="N8">
-        <v>12.40109061808657</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>17.68382925919783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.51626560119195</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.92554428014109</v>
+        <v>3.685223788013532</v>
       </c>
       <c r="D9">
-        <v>4.52216882845607</v>
+        <v>7.255863433935944</v>
       </c>
       <c r="E9">
-        <v>8.909507274248817</v>
+        <v>12.58857998467639</v>
       </c>
       <c r="F9">
-        <v>23.46196818884414</v>
+        <v>31.71828459694714</v>
       </c>
       <c r="G9">
-        <v>2.073490171812062</v>
+        <v>39.51480100896217</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.090351416469334</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.465610139857989</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.18860645981582</v>
       </c>
       <c r="K9">
-        <v>20.79693266665875</v>
+        <v>21.41306424665994</v>
       </c>
       <c r="L9">
-        <v>5.137153898273549</v>
+        <v>7.838742739030099</v>
       </c>
       <c r="M9">
-        <v>16.85872868491381</v>
+        <v>24.0099814810059</v>
       </c>
       <c r="N9">
-        <v>11.9997588206026</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>18.37686820117327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.23963757987072</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.59651144590777</v>
+        <v>4.064091336608764</v>
       </c>
       <c r="D10">
-        <v>4.6167986298515</v>
+        <v>7.67688264381553</v>
       </c>
       <c r="E10">
-        <v>9.187444241510233</v>
+        <v>13.25585487070615</v>
       </c>
       <c r="F10">
-        <v>24.67493449237147</v>
+        <v>33.21274147922566</v>
       </c>
       <c r="G10">
-        <v>2.063097849167645</v>
+        <v>41.64190658902718</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.519410263926815</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.836746428156496</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.47653037478416</v>
       </c>
       <c r="K10">
-        <v>22.65096681823282</v>
+        <v>22.29164981893587</v>
       </c>
       <c r="L10">
-        <v>5.097240231102776</v>
+        <v>8.124234720769966</v>
       </c>
       <c r="M10">
-        <v>18.32461796641936</v>
+        <v>26.08193557696616</v>
       </c>
       <c r="N10">
-        <v>11.72110571101817</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>18.97282041768685</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.06619396543749</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.89878418817915</v>
+        <v>4.3685655529098</v>
       </c>
       <c r="D11">
-        <v>4.659100502125136</v>
+        <v>7.159023614546727</v>
       </c>
       <c r="E11">
-        <v>9.31907169141911</v>
+        <v>11.67328640005892</v>
       </c>
       <c r="F11">
-        <v>25.23912546671065</v>
+        <v>31.93016367110328</v>
       </c>
       <c r="G11">
-        <v>2.058458519395197</v>
+        <v>40.19857187318742</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.268032120666286</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.93706176455117</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.12181250246205</v>
       </c>
       <c r="K11">
-        <v>23.45110950764715</v>
+        <v>21.70634330039391</v>
       </c>
       <c r="L11">
-        <v>5.081614061008457</v>
+        <v>7.331050570110554</v>
       </c>
       <c r="M11">
-        <v>18.98384770078076</v>
+        <v>26.42778975990729</v>
       </c>
       <c r="N11">
-        <v>11.59789467998054</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>19.26347915483233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.15212395823977</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.01276149611607</v>
+        <v>4.608346618190634</v>
       </c>
       <c r="D12">
-        <v>4.675004353091983</v>
+        <v>6.625674522561201</v>
       </c>
       <c r="E12">
-        <v>9.369658899316036</v>
+        <v>10.25282557129296</v>
       </c>
       <c r="F12">
-        <v>25.45446948070577</v>
+        <v>30.56071742089733</v>
       </c>
       <c r="G12">
-        <v>2.056713187274841</v>
+        <v>38.59409504717436</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.413263698254177</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.947613866064405</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.77290644618659</v>
       </c>
       <c r="K12">
-        <v>23.74796787614749</v>
+        <v>21.069180738313</v>
       </c>
       <c r="L12">
-        <v>5.076078143745963</v>
+        <v>6.682276250348093</v>
       </c>
       <c r="M12">
-        <v>19.22856767538749</v>
+        <v>26.31570013324925</v>
       </c>
       <c r="N12">
-        <v>11.55175470964186</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>19.3764044290857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.2738459719016</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.98823692484862</v>
+        <v>4.773451686373839</v>
       </c>
       <c r="D13">
-        <v>4.671584405345154</v>
+        <v>6.047637562193828</v>
       </c>
       <c r="E13">
-        <v>9.358731053313312</v>
+        <v>8.876457770241322</v>
       </c>
       <c r="F13">
-        <v>25.40801699433239</v>
+        <v>28.96409414824101</v>
       </c>
       <c r="G13">
-        <v>2.057088585243646</v>
+        <v>36.63901056549413</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.661089174856892</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.890842697553531</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.38558018555973</v>
       </c>
       <c r="K13">
-        <v>23.68430573295306</v>
+        <v>20.28896433153795</v>
       </c>
       <c r="L13">
-        <v>5.077253148588033</v>
+        <v>6.120185150084227</v>
       </c>
       <c r="M13">
-        <v>19.17608018398537</v>
+        <v>25.82235168819108</v>
       </c>
       <c r="N13">
-        <v>11.56166862981143</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>19.35195607140978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.42836788243158</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.90817122909042</v>
+        <v>4.849579011075745</v>
       </c>
       <c r="D14">
-        <v>4.660411268090987</v>
+        <v>5.622213958263708</v>
       </c>
       <c r="E14">
-        <v>9.323218663532371</v>
+        <v>7.967789361212395</v>
       </c>
       <c r="F14">
-        <v>25.2568083656689</v>
+        <v>27.72335895006244</v>
       </c>
       <c r="G14">
-        <v>2.058314706972052</v>
+        <v>35.07656894029807</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.571463417919696</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.821432542460895</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.09345059733342</v>
       </c>
       <c r="K14">
-        <v>23.47565474848913</v>
+        <v>19.66358261273939</v>
       </c>
       <c r="L14">
-        <v>5.081150869706988</v>
+        <v>5.79604862246908</v>
       </c>
       <c r="M14">
-        <v>19.00407901569869</v>
+        <v>25.29393382063171</v>
       </c>
       <c r="N14">
-        <v>11.5940882991559</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>19.27271202510891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.55198642096718</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.85906369216263</v>
+        <v>4.838308147199914</v>
       </c>
       <c r="D15">
-        <v>4.653552206696927</v>
+        <v>5.510157465161137</v>
       </c>
       <c r="E15">
-        <v>9.301562932195068</v>
+        <v>7.749943636618811</v>
       </c>
       <c r="F15">
-        <v>25.16440747299957</v>
+        <v>27.36173340728437</v>
       </c>
       <c r="G15">
-        <v>2.059067199955524</v>
+        <v>34.5991072490901</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.777854883942815</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.790140965655484</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.01088016780083</v>
       </c>
       <c r="K15">
-        <v>23.34705317278656</v>
+        <v>19.46856798252475</v>
       </c>
       <c r="L15">
-        <v>5.083588543461671</v>
+        <v>5.725017043406389</v>
       </c>
       <c r="M15">
-        <v>18.89808554675322</v>
+        <v>25.07644716590842</v>
       </c>
       <c r="N15">
-        <v>11.61401390898367</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>19.22454644370474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.58789640227027</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.57669212851751</v>
+        <v>4.647021987889701</v>
       </c>
       <c r="D16">
-        <v>4.614018428818303</v>
+        <v>5.421914859456218</v>
       </c>
       <c r="E16">
-        <v>9.178946203010534</v>
+        <v>7.671469350103422</v>
       </c>
       <c r="F16">
-        <v>24.63830509081694</v>
+        <v>26.96298963504487</v>
       </c>
       <c r="G16">
-        <v>2.06340271435623</v>
+        <v>33.95152636321978</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.495474485861677</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.645407406056811</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.95147597915409</v>
       </c>
       <c r="K16">
-        <v>22.59781198435246</v>
+        <v>19.20251250923377</v>
       </c>
       <c r="L16">
-        <v>5.098313825359886</v>
+        <v>5.697838074658574</v>
       </c>
       <c r="M16">
-        <v>18.28084341795286</v>
+        <v>24.28356854803017</v>
       </c>
       <c r="N16">
-        <v>11.72922980663763</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>18.9542227988711</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.61623519883879</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.4026609162583</v>
+        <v>4.450814955031804</v>
       </c>
       <c r="D17">
-        <v>4.589569129369778</v>
+        <v>5.586691400222517</v>
       </c>
       <c r="E17">
-        <v>9.105051616063504</v>
+        <v>8.086520516073751</v>
       </c>
       <c r="F17">
-        <v>24.31866844935483</v>
+        <v>27.33382783485813</v>
       </c>
       <c r="G17">
-        <v>2.066084173904969</v>
+        <v>34.31227769754839</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.742862130276177</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.570826787200936</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.06305096946993</v>
       </c>
       <c r="K17">
-        <v>22.12715282891532</v>
+        <v>19.33777464721292</v>
       </c>
       <c r="L17">
-        <v>5.108007502579481</v>
+        <v>5.83555296150378</v>
       </c>
       <c r="M17">
-        <v>17.89334326796192</v>
+        <v>23.95698115504696</v>
       </c>
       <c r="N17">
-        <v>11.80082435128669</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>18.79343145271751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.57457381990097</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.302287526229</v>
+        <v>4.263391083501408</v>
       </c>
       <c r="D18">
-        <v>4.575436787968838</v>
+        <v>5.991400305295232</v>
       </c>
       <c r="E18">
-        <v>9.063038347452688</v>
+        <v>9.071797918980264</v>
       </c>
       <c r="F18">
-        <v>24.13599386574582</v>
+        <v>28.43259104270606</v>
       </c>
       <c r="G18">
-        <v>2.067634856412272</v>
+        <v>35.62502457309915</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.53968436624024</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.549007618979594</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.34186701606022</v>
       </c>
       <c r="K18">
-        <v>21.85236435413078</v>
+        <v>19.85995540626517</v>
       </c>
       <c r="L18">
-        <v>5.113820134392304</v>
+        <v>6.209529687682565</v>
       </c>
       <c r="M18">
-        <v>17.66718878009334</v>
+        <v>24.01911418280219</v>
       </c>
       <c r="N18">
-        <v>11.84233719690726</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>18.70278683801257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.47097678835143</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.26825768489258</v>
+        <v>4.043208165123953</v>
       </c>
       <c r="D19">
-        <v>4.57064008180362</v>
+        <v>6.575528361479805</v>
       </c>
       <c r="E19">
-        <v>9.048897490557074</v>
+        <v>10.53349913161641</v>
       </c>
       <c r="F19">
-        <v>24.0743476182853</v>
+        <v>29.9645706567794</v>
       </c>
       <c r="G19">
-        <v>2.068161364877915</v>
+        <v>37.47733140500161</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.224431421139547</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.578557928701937</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.71267460563076</v>
       </c>
       <c r="K19">
-        <v>21.75862287996773</v>
+        <v>20.58618708229625</v>
       </c>
       <c r="L19">
-        <v>5.115828400799241</v>
+        <v>6.834723310808259</v>
       </c>
       <c r="M19">
-        <v>17.59005198750946</v>
+        <v>24.36431379837733</v>
       </c>
       <c r="N19">
-        <v>11.85644985039728</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>18.6724103799389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.34193928701541</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.42121581940456</v>
+        <v>3.871142170559755</v>
       </c>
       <c r="D20">
-        <v>4.59217907516337</v>
+        <v>7.585435423869106</v>
       </c>
       <c r="E20">
-        <v>9.112867249441724</v>
+        <v>13.08102752800672</v>
       </c>
       <c r="F20">
-        <v>24.35257371038559</v>
+        <v>32.71398644736779</v>
       </c>
       <c r="G20">
-        <v>2.065797869282963</v>
+        <v>40.89899401272811</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.402460702096452</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.743093264047737</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.3615176611425</v>
       </c>
       <c r="K20">
-        <v>22.1776767462911</v>
+        <v>21.9522726066531</v>
       </c>
       <c r="L20">
-        <v>5.106950934459086</v>
+        <v>8.041461561406079</v>
       </c>
       <c r="M20">
-        <v>17.93493167402097</v>
+        <v>25.51133885153598</v>
       </c>
       <c r="N20">
-        <v>11.79316842553198</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>18.81035735862698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.12101100546903</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.93170209774845</v>
+        <v>4.138281081826158</v>
       </c>
       <c r="D21">
-        <v>4.663696268605305</v>
+        <v>8.020837483988521</v>
       </c>
       <c r="E21">
-        <v>9.333629380104028</v>
+        <v>13.91474189496137</v>
       </c>
       <c r="F21">
-        <v>25.301176544184</v>
+        <v>34.20399730698374</v>
       </c>
       <c r="G21">
-        <v>2.05795426372318</v>
+        <v>42.95447022280725</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.751596431145576</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.033868945799435</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.67728395184246</v>
       </c>
       <c r="K21">
-        <v>23.53710650121395</v>
+        <v>22.80583006318925</v>
       </c>
       <c r="L21">
-        <v>5.079995518389166</v>
+        <v>8.42730508763459</v>
       </c>
       <c r="M21">
-        <v>19.05473269487289</v>
+        <v>27.12753504359543</v>
       </c>
       <c r="N21">
-        <v>11.58455174716787</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>19.29590996643611</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.96581640842519</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.26247857130509</v>
+        <v>4.351020607279134</v>
       </c>
       <c r="D22">
-        <v>4.709763576490152</v>
+        <v>8.247148329741595</v>
       </c>
       <c r="E22">
-        <v>9.48223880216589</v>
+        <v>14.32777491577407</v>
       </c>
       <c r="F22">
-        <v>25.9310094391517</v>
+        <v>35.08916314278731</v>
       </c>
       <c r="G22">
-        <v>2.052894310975994</v>
+        <v>44.20685264306938</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.968244466787734</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.216073268015061</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.8719481138651</v>
       </c>
       <c r="K22">
-        <v>24.38983623854667</v>
+        <v>23.3425776607218</v>
       </c>
       <c r="L22">
-        <v>5.064610615172641</v>
+        <v>8.618291031502382</v>
       </c>
       <c r="M22">
-        <v>19.75797299989191</v>
+        <v>28.12189260310807</v>
       </c>
       <c r="N22">
-        <v>11.45122945171297</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>19.62993233484478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.87063363463978</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.08621490573232</v>
+        <v>4.272855588782097</v>
       </c>
       <c r="D23">
-        <v>4.685240642012196</v>
+        <v>8.119503434615758</v>
       </c>
       <c r="E23">
-        <v>9.40252800628936</v>
+        <v>14.10605849332917</v>
       </c>
       <c r="F23">
-        <v>25.59397665437365</v>
+        <v>34.65451675265302</v>
       </c>
       <c r="G23">
-        <v>2.055589258004527</v>
+        <v>43.60501902064822</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.854428988132516</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.11804696974237</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.78139486085741</v>
       </c>
       <c r="K23">
-        <v>23.93795924804056</v>
+        <v>23.09559127316478</v>
       </c>
       <c r="L23">
-        <v>5.072611476735543</v>
+        <v>8.518284412701696</v>
       </c>
       <c r="M23">
-        <v>19.38523132118123</v>
+        <v>27.60968346642494</v>
       </c>
       <c r="N23">
-        <v>11.52210669767468</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>19.45011662586263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.91736454223114</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.41282814117552</v>
+        <v>3.906010152190887</v>
       </c>
       <c r="D24">
-        <v>4.590999355156696</v>
+        <v>7.633089168189809</v>
       </c>
       <c r="E24">
-        <v>9.109332338214866</v>
+        <v>13.24229442845128</v>
       </c>
       <c r="F24">
-        <v>24.33724174371221</v>
+        <v>32.92362568169357</v>
       </c>
       <c r="G24">
-        <v>2.06592727924459</v>
+        <v>41.18247097579821</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.4131477461422</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.742261499568138</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.42057028135628</v>
       </c>
       <c r="K24">
-        <v>22.15484797235491</v>
+        <v>22.0852446611736</v>
       </c>
       <c r="L24">
-        <v>5.107427863886246</v>
+        <v>8.12717792961851</v>
       </c>
       <c r="M24">
-        <v>17.91614007547863</v>
+        <v>25.55687098041589</v>
       </c>
       <c r="N24">
-        <v>11.79662857306924</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>18.8026995645074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.10540325451785</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.67633134349361</v>
+        <v>3.474871980513989</v>
       </c>
       <c r="D25">
-        <v>4.486712487829664</v>
+        <v>7.077044164354899</v>
       </c>
       <c r="E25">
-        <v>8.811787259102974</v>
+        <v>12.25111783143689</v>
       </c>
       <c r="F25">
-        <v>23.02694734072806</v>
+        <v>31.00664481895381</v>
       </c>
       <c r="G25">
-        <v>2.077402950680443</v>
+        <v>38.49224768574525</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.919081642476699</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.324085507540535</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.04043387303956</v>
       </c>
       <c r="K25">
-        <v>20.07527556224112</v>
+        <v>20.97269837083062</v>
       </c>
       <c r="L25">
-        <v>5.153987676162439</v>
+        <v>7.684516429702979</v>
       </c>
       <c r="M25">
-        <v>16.37276009653635</v>
+        <v>23.14768671116405</v>
       </c>
       <c r="N25">
-        <v>12.10549043408846</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>18.17440379417104</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.31747078571409</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.232169986667397</v>
+        <v>1.424241097502337</v>
       </c>
       <c r="D2">
-        <v>6.620074273154672</v>
+        <v>6.990463037233331</v>
       </c>
       <c r="E2">
-        <v>11.46378490327479</v>
+        <v>11.61983470264895</v>
       </c>
       <c r="F2">
-        <v>29.65962827643088</v>
+        <v>28.03665880836045</v>
       </c>
       <c r="G2">
-        <v>36.63506686569256</v>
+        <v>33.28346648080119</v>
       </c>
       <c r="H2">
-        <v>1.579354099815714</v>
+        <v>1.596608404450171</v>
       </c>
       <c r="I2">
-        <v>3.001113536790574</v>
+        <v>3.019054433925952</v>
       </c>
       <c r="J2">
-        <v>11.80369486122818</v>
+        <v>11.57173300814382</v>
       </c>
       <c r="K2">
-        <v>20.24271285332704</v>
+        <v>18.48125405682825</v>
       </c>
       <c r="L2">
-        <v>7.345420439135027</v>
+        <v>15.67454761732115</v>
       </c>
       <c r="M2">
-        <v>21.24580969832827</v>
+        <v>11.98124381447085</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.301537779801598</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>20.60449533085841</v>
       </c>
       <c r="P2">
-        <v>12.47372238332152</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.57192269726048</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.990184557675778</v>
+        <v>1.534792886428761</v>
       </c>
       <c r="D3">
-        <v>6.306852502732011</v>
+        <v>6.649397211465008</v>
       </c>
       <c r="E3">
-        <v>10.9038762763778</v>
+        <v>11.06101827744266</v>
       </c>
       <c r="F3">
-        <v>28.67236239928686</v>
+        <v>27.21719011750141</v>
       </c>
       <c r="G3">
-        <v>35.24640976106081</v>
+        <v>32.21594227183452</v>
       </c>
       <c r="H3">
-        <v>1.854693858459909</v>
+        <v>1.84973008695792</v>
       </c>
       <c r="I3">
-        <v>2.774770933444033</v>
+        <v>2.829407230647746</v>
       </c>
       <c r="J3">
-        <v>11.62854388433754</v>
+        <v>11.41659797342417</v>
       </c>
       <c r="K3">
-        <v>19.68156342055549</v>
+        <v>18.08836576264192</v>
       </c>
       <c r="L3">
-        <v>7.103138874868908</v>
+        <v>15.5673211740588</v>
       </c>
       <c r="M3">
-        <v>19.84455655541024</v>
+        <v>11.4585523279291</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.073527430671518</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>19.26277673194877</v>
       </c>
       <c r="P3">
-        <v>12.58894282549903</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.64856490839845</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.828919724371468</v>
+        <v>1.634226813339961</v>
       </c>
       <c r="D4">
-        <v>6.10776243559006</v>
+        <v>6.432734885729356</v>
       </c>
       <c r="E4">
-        <v>10.54571085552399</v>
+        <v>10.70381752682393</v>
       </c>
       <c r="F4">
-        <v>28.05680890893835</v>
+        <v>26.70638511979312</v>
       </c>
       <c r="G4">
-        <v>34.37786793192384</v>
+        <v>31.55326569351866</v>
       </c>
       <c r="H4">
-        <v>2.029663188511455</v>
+        <v>2.010784305727012</v>
       </c>
       <c r="I4">
-        <v>2.631521690060258</v>
+        <v>2.709389497886717</v>
       </c>
       <c r="J4">
-        <v>11.52294036740311</v>
+        <v>11.32060446220569</v>
       </c>
       <c r="K4">
-        <v>19.33206923026595</v>
+        <v>17.84302348640338</v>
       </c>
       <c r="L4">
-        <v>6.949457264735555</v>
+        <v>15.49446978067953</v>
       </c>
       <c r="M4">
-        <v>18.9655636783922</v>
+        <v>11.14816885113567</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.928981863944543</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>18.40155273229202</v>
       </c>
       <c r="P4">
-        <v>12.66205110165705</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.69866798068591</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.746942321233266</v>
+        <v>1.669194154891356</v>
       </c>
       <c r="D5">
-        <v>6.027490913263208</v>
+        <v>6.345126030293457</v>
       </c>
       <c r="E5">
-        <v>10.39707659557009</v>
+        <v>10.55565582646948</v>
       </c>
       <c r="F5">
-        <v>27.79266195364811</v>
+        <v>26.48600469801862</v>
       </c>
       <c r="G5">
-        <v>33.99998518869006</v>
+        <v>31.26261389516152</v>
       </c>
       <c r="H5">
-        <v>2.10290976024883</v>
+        <v>2.07823374252369</v>
       </c>
       <c r="I5">
-        <v>2.572374253564276</v>
+        <v>2.66019438641022</v>
       </c>
       <c r="J5">
-        <v>11.47663519142711</v>
+        <v>11.27779872309007</v>
       </c>
       <c r="K5">
-        <v>19.17700397061204</v>
+        <v>17.73152139286148</v>
       </c>
       <c r="L5">
-        <v>6.885174213085987</v>
+        <v>15.45455745419659</v>
       </c>
       <c r="M5">
-        <v>18.59012807111809</v>
+        <v>11.01722135843834</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.86855492320383</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>18.04371591079449</v>
       </c>
       <c r="P5">
-        <v>12.69307761150176</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.72062928701451</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.717244484225374</v>
+        <v>1.667607055595635</v>
       </c>
       <c r="D6">
-        <v>6.017116381827056</v>
+        <v>6.333433655511529</v>
       </c>
       <c r="E6">
-        <v>10.37322668563721</v>
+        <v>10.5318771174806</v>
       </c>
       <c r="F6">
-        <v>27.7349385219334</v>
+        <v>26.43645830616374</v>
       </c>
       <c r="G6">
-        <v>33.91211722435219</v>
+        <v>31.19095854054957</v>
       </c>
       <c r="H6">
-        <v>2.115691676502477</v>
+        <v>2.089983591124965</v>
       </c>
       <c r="I6">
-        <v>2.563091168624895</v>
+        <v>2.652983485530254</v>
       </c>
       <c r="J6">
-        <v>11.46436456836246</v>
+        <v>11.26637809277883</v>
       </c>
       <c r="K6">
-        <v>19.13706797913675</v>
+        <v>17.70003453951965</v>
       </c>
       <c r="L6">
-        <v>6.873870452068301</v>
+        <v>15.43751085738465</v>
       </c>
       <c r="M6">
-        <v>18.5208508207575</v>
+        <v>10.98629489376219</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.857944486978665</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>17.97767961927719</v>
       </c>
       <c r="P6">
-        <v>12.69906217167425</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.72529917788616</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.785546556171273</v>
+        <v>1.618054267612172</v>
       </c>
       <c r="D7">
-        <v>6.11487770113792</v>
+        <v>6.444395816789651</v>
       </c>
       <c r="E7">
-        <v>10.54651649486819</v>
+        <v>10.70633170365583</v>
       </c>
       <c r="F7">
-        <v>28.01611611994105</v>
+        <v>26.6473801406951</v>
       </c>
       <c r="G7">
-        <v>34.30555459561656</v>
+        <v>31.56660444778078</v>
       </c>
       <c r="H7">
-        <v>2.032070655069059</v>
+        <v>2.013655053167077</v>
       </c>
       <c r="I7">
-        <v>2.631929075483686</v>
+        <v>2.710268692862003</v>
       </c>
       <c r="J7">
-        <v>11.50977568856569</v>
+        <v>11.25734166399866</v>
       </c>
       <c r="K7">
-        <v>19.29171885272167</v>
+        <v>17.7926926823295</v>
       </c>
       <c r="L7">
-        <v>6.947091151232021</v>
+        <v>15.45543129442571</v>
       </c>
       <c r="M7">
-        <v>18.94398930443618</v>
+        <v>11.11031615098549</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.925974310979317</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>18.3713779414378</v>
       </c>
       <c r="P7">
-        <v>12.66471928530556</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.70337869860832</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.100112020679658</v>
+        <v>1.416326661276713</v>
       </c>
       <c r="D8">
-        <v>6.523745457216773</v>
+        <v>6.899729740932226</v>
       </c>
       <c r="E8">
-        <v>11.27725326883089</v>
+        <v>11.43911961935773</v>
       </c>
       <c r="F8">
-        <v>29.2740678662825</v>
+        <v>27.64351145697152</v>
       </c>
       <c r="G8">
-        <v>36.07466277636148</v>
+        <v>33.09414823810638</v>
       </c>
       <c r="H8">
-        <v>1.674907712255553</v>
+        <v>1.686550198440213</v>
       </c>
       <c r="I8">
-        <v>2.924730059937688</v>
+        <v>2.954285318803268</v>
       </c>
       <c r="J8">
-        <v>11.72660773494006</v>
+        <v>11.33763156522567</v>
       </c>
       <c r="K8">
-        <v>20.00124595649406</v>
+        <v>18.25725874266793</v>
       </c>
       <c r="L8">
-        <v>7.261025023355155</v>
+        <v>15.5709023191383</v>
       </c>
       <c r="M8">
-        <v>20.74719700894478</v>
+        <v>11.73050391761468</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.219583938537015</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>20.10409970974879</v>
       </c>
       <c r="P8">
-        <v>12.51626560119195</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.60778654740641</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.685223788013532</v>
+        <v>1.738913161797979</v>
       </c>
       <c r="D9">
-        <v>7.255863433935944</v>
+        <v>7.700729030772198</v>
       </c>
       <c r="E9">
-        <v>12.58857998467639</v>
+        <v>12.74971284430979</v>
       </c>
       <c r="F9">
-        <v>31.71828459694714</v>
+        <v>29.66560615688502</v>
       </c>
       <c r="G9">
-        <v>39.51480100896217</v>
+        <v>35.8302082956882</v>
       </c>
       <c r="H9">
-        <v>2.090351416469334</v>
+        <v>2.025573370467025</v>
       </c>
       <c r="I9">
-        <v>3.465610139857989</v>
+        <v>3.405633465535123</v>
       </c>
       <c r="J9">
-        <v>12.18860645981582</v>
+        <v>11.69410050775114</v>
       </c>
       <c r="K9">
-        <v>21.41306424665994</v>
+        <v>19.24381177030193</v>
       </c>
       <c r="L9">
-        <v>7.838742739030099</v>
+        <v>15.82758057458473</v>
       </c>
       <c r="M9">
-        <v>24.0099814810059</v>
+        <v>13.09336995702343</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.763139374034535</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>23.1807942420763</v>
       </c>
       <c r="P9">
-        <v>12.23963757987072</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.43373209023196</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.064091336608764</v>
+        <v>2.040647927486079</v>
       </c>
       <c r="D10">
-        <v>7.67688264381553</v>
+        <v>8.187602010362854</v>
       </c>
       <c r="E10">
-        <v>13.25585487070615</v>
+        <v>13.42274088442645</v>
       </c>
       <c r="F10">
-        <v>33.21274147922566</v>
+        <v>30.77573077799426</v>
       </c>
       <c r="G10">
-        <v>41.64190658902718</v>
+        <v>37.92061971808906</v>
       </c>
       <c r="H10">
-        <v>2.519410263926815</v>
+        <v>2.414463626144485</v>
       </c>
       <c r="I10">
-        <v>3.836746428156496</v>
+        <v>3.712520565908432</v>
       </c>
       <c r="J10">
-        <v>12.47653037478416</v>
+        <v>11.62794938798876</v>
       </c>
       <c r="K10">
-        <v>22.29164981893587</v>
+        <v>19.76833461852409</v>
       </c>
       <c r="L10">
-        <v>8.124234720769966</v>
+        <v>15.8584245720252</v>
       </c>
       <c r="M10">
-        <v>26.08193557696616</v>
+        <v>13.9651918373442</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.022402271642301</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>25.09125883581489</v>
       </c>
       <c r="P10">
-        <v>12.06619396543749</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.35543573494568</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.3685655529098</v>
+        <v>2.3457059206922</v>
       </c>
       <c r="D11">
-        <v>7.159023614546727</v>
+        <v>7.698836982820607</v>
       </c>
       <c r="E11">
-        <v>11.67328640005892</v>
+        <v>11.83161631774217</v>
       </c>
       <c r="F11">
-        <v>31.93016367110328</v>
+        <v>29.29938226816161</v>
       </c>
       <c r="G11">
-        <v>40.19857187318742</v>
+        <v>37.39266134316445</v>
       </c>
       <c r="H11">
-        <v>3.268032120666286</v>
+        <v>3.177207529748798</v>
       </c>
       <c r="I11">
-        <v>3.93706176455117</v>
+        <v>3.793107348605054</v>
       </c>
       <c r="J11">
-        <v>12.12181250246205</v>
+        <v>10.75117861068614</v>
       </c>
       <c r="K11">
-        <v>21.70634330039391</v>
+        <v>19.06836223768954</v>
       </c>
       <c r="L11">
-        <v>7.331050570110554</v>
+        <v>15.20533764053341</v>
       </c>
       <c r="M11">
-        <v>26.42778975990729</v>
+        <v>13.60960770090422</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.220834842175061</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>25.34770100169126</v>
       </c>
       <c r="P11">
-        <v>12.15212395823977</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.53091215342446</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.608346618190634</v>
+        <v>2.605995506458294</v>
       </c>
       <c r="D12">
-        <v>6.625674522561201</v>
+        <v>7.158774325529298</v>
       </c>
       <c r="E12">
-        <v>10.25282557129296</v>
+        <v>10.38937971263755</v>
       </c>
       <c r="F12">
-        <v>30.56071742089733</v>
+        <v>27.91301273049369</v>
       </c>
       <c r="G12">
-        <v>38.59409504717436</v>
+        <v>36.31738849385109</v>
       </c>
       <c r="H12">
-        <v>4.413263698254177</v>
+        <v>4.346686724275525</v>
       </c>
       <c r="I12">
-        <v>3.947613866064405</v>
+        <v>3.799910119325475</v>
       </c>
       <c r="J12">
-        <v>11.77290644618659</v>
+        <v>10.22327777989415</v>
       </c>
       <c r="K12">
-        <v>21.069180738313</v>
+        <v>18.45118487688224</v>
       </c>
       <c r="L12">
-        <v>6.682276250348093</v>
+        <v>14.71539563259248</v>
       </c>
       <c r="M12">
-        <v>26.31570013324925</v>
+        <v>13.18777256623526</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.574314792809297</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>25.21791394844136</v>
       </c>
       <c r="P12">
-        <v>12.2738459719016</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.69819939387419</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.773451686373839</v>
+        <v>2.810242632577507</v>
       </c>
       <c r="D13">
-        <v>6.047637562193828</v>
+        <v>6.535835185702542</v>
       </c>
       <c r="E13">
-        <v>8.876457770241322</v>
+        <v>8.975519416126202</v>
       </c>
       <c r="F13">
-        <v>28.96409414824101</v>
+        <v>26.48412283279237</v>
       </c>
       <c r="G13">
-        <v>36.63901056549413</v>
+        <v>34.46201489827585</v>
       </c>
       <c r="H13">
-        <v>5.661089174856892</v>
+        <v>5.614763662162441</v>
       </c>
       <c r="I13">
-        <v>3.890842697553531</v>
+        <v>3.754353229042656</v>
       </c>
       <c r="J13">
-        <v>11.38558018555973</v>
+        <v>9.991201958817372</v>
       </c>
       <c r="K13">
-        <v>20.28896433153795</v>
+        <v>17.83201633696983</v>
       </c>
       <c r="L13">
-        <v>6.120185150084227</v>
+        <v>14.29550309975345</v>
       </c>
       <c r="M13">
-        <v>25.82235168819108</v>
+        <v>12.66732576839576</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.025027192412684</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>24.77996103684324</v>
       </c>
       <c r="P13">
-        <v>12.42836788243158</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.85624054756523</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.849579011075745</v>
+        <v>2.92521908408725</v>
       </c>
       <c r="D14">
-        <v>5.622213958263708</v>
+        <v>6.061641187389114</v>
       </c>
       <c r="E14">
-        <v>7.967789361212395</v>
+        <v>8.03279265240892</v>
       </c>
       <c r="F14">
-        <v>27.72335895006244</v>
+        <v>25.44370537719396</v>
       </c>
       <c r="G14">
-        <v>35.07656894029807</v>
+        <v>32.78674143341649</v>
       </c>
       <c r="H14">
-        <v>6.571463417919696</v>
+        <v>6.536555927854375</v>
       </c>
       <c r="I14">
-        <v>3.821432542460895</v>
+        <v>3.699784270524123</v>
       </c>
       <c r="J14">
-        <v>11.09345059733342</v>
+        <v>9.943201698154782</v>
       </c>
       <c r="K14">
-        <v>19.66358261273939</v>
+        <v>17.38323899488795</v>
       </c>
       <c r="L14">
-        <v>5.79604862246908</v>
+        <v>14.02122517418298</v>
       </c>
       <c r="M14">
-        <v>25.29393382063171</v>
+        <v>12.24680621194139</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.714860636456381</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>24.32352717484221</v>
       </c>
       <c r="P14">
-        <v>12.55198642096718</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.96212317353367</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.838308147199914</v>
+        <v>2.926611590673299</v>
       </c>
       <c r="D15">
-        <v>5.510157465161137</v>
+        <v>5.931100973628526</v>
       </c>
       <c r="E15">
-        <v>7.749943636618811</v>
+        <v>7.805735261096213</v>
       </c>
       <c r="F15">
-        <v>27.36173340728437</v>
+        <v>25.16683036013809</v>
       </c>
       <c r="G15">
-        <v>34.5991072490901</v>
+        <v>32.20623659130345</v>
       </c>
       <c r="H15">
-        <v>6.777854883942815</v>
+        <v>6.746095524390023</v>
       </c>
       <c r="I15">
-        <v>3.790140965655484</v>
+        <v>3.67584827779533</v>
       </c>
       <c r="J15">
-        <v>11.01088016780083</v>
+        <v>9.977675562807965</v>
       </c>
       <c r="K15">
-        <v>19.46856798252475</v>
+        <v>17.25959082459982</v>
       </c>
       <c r="L15">
-        <v>5.725017043406389</v>
+        <v>13.95779012156685</v>
       </c>
       <c r="M15">
-        <v>25.07644716590842</v>
+        <v>12.11283910411196</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.648966152976949</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>24.13838188743796</v>
       </c>
       <c r="P15">
-        <v>12.58789640227027</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.98528946067413</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.647021987889701</v>
+        <v>2.742195262275562</v>
       </c>
       <c r="D16">
-        <v>5.421914859456218</v>
+        <v>5.790429930801599</v>
       </c>
       <c r="E16">
-        <v>7.671469350103422</v>
+        <v>7.727927348865081</v>
       </c>
       <c r="F16">
-        <v>26.96298963504487</v>
+        <v>25.06479955265543</v>
       </c>
       <c r="G16">
-        <v>33.95152636321978</v>
+        <v>30.94575059612709</v>
       </c>
       <c r="H16">
-        <v>6.495474485861677</v>
+        <v>6.471111261011567</v>
       </c>
       <c r="I16">
-        <v>3.645407406056811</v>
+        <v>3.561742282573063</v>
       </c>
       <c r="J16">
-        <v>10.95147597915409</v>
+        <v>10.40098786910027</v>
       </c>
       <c r="K16">
-        <v>19.20251250923377</v>
+        <v>17.22578543326223</v>
       </c>
       <c r="L16">
-        <v>5.697838074658574</v>
+        <v>14.06091390272724</v>
       </c>
       <c r="M16">
-        <v>24.28356854803017</v>
+        <v>11.89957571932677</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.635416604658886</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>23.470484355752</v>
       </c>
       <c r="P16">
-        <v>12.61623519883879</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.9416903582489</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.450814955031804</v>
+        <v>2.535237643657286</v>
       </c>
       <c r="D17">
-        <v>5.586691400222517</v>
+        <v>5.946204844711072</v>
       </c>
       <c r="E17">
-        <v>8.086520516073751</v>
+        <v>8.160745422148922</v>
       </c>
       <c r="F17">
-        <v>27.33382783485813</v>
+        <v>25.52855247752428</v>
       </c>
       <c r="G17">
-        <v>34.31227769754839</v>
+        <v>31.00119448190887</v>
       </c>
       <c r="H17">
-        <v>5.742862130276177</v>
+        <v>5.719561186525037</v>
       </c>
       <c r="I17">
-        <v>3.570826787200936</v>
+        <v>3.502152826343235</v>
       </c>
       <c r="J17">
-        <v>11.06305096946993</v>
+        <v>10.70320827458913</v>
       </c>
       <c r="K17">
-        <v>19.33777464721292</v>
+        <v>17.42605380055461</v>
       </c>
       <c r="L17">
-        <v>5.83555296150378</v>
+        <v>14.28051844840127</v>
       </c>
       <c r="M17">
-        <v>23.95698115504696</v>
+        <v>11.94971478286927</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.775806111698198</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>23.18985477157096</v>
       </c>
       <c r="P17">
-        <v>12.57457381990097</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.86160072050029</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.263391083501408</v>
+        <v>2.310920135087775</v>
       </c>
       <c r="D18">
-        <v>5.991400305295232</v>
+        <v>6.368109274638356</v>
       </c>
       <c r="E18">
-        <v>9.071797918980264</v>
+        <v>9.17248191371845</v>
       </c>
       <c r="F18">
-        <v>28.43259104270606</v>
+        <v>26.59405606948661</v>
       </c>
       <c r="G18">
-        <v>35.62502457309915</v>
+        <v>32.07888550810187</v>
       </c>
       <c r="H18">
-        <v>4.53968436624024</v>
+        <v>4.510887503617834</v>
       </c>
       <c r="I18">
-        <v>3.549007618979594</v>
+        <v>3.482924193407113</v>
       </c>
       <c r="J18">
-        <v>11.34186701606022</v>
+        <v>11.03103461488125</v>
       </c>
       <c r="K18">
-        <v>19.85995540626517</v>
+        <v>17.90141984873618</v>
       </c>
       <c r="L18">
-        <v>6.209529687682565</v>
+        <v>14.66533165624391</v>
       </c>
       <c r="M18">
-        <v>24.01911418280219</v>
+        <v>12.26934629905876</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.145180106569166</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>23.24894573331336</v>
       </c>
       <c r="P18">
-        <v>12.47097678835143</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.73475351539151</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.043208165123953</v>
+        <v>2.063688237892538</v>
       </c>
       <c r="D19">
-        <v>6.575528361479805</v>
+        <v>6.983591024979011</v>
       </c>
       <c r="E19">
-        <v>10.53349913161641</v>
+        <v>10.66037127567609</v>
       </c>
       <c r="F19">
-        <v>29.9645706567794</v>
+        <v>28.01668299779805</v>
       </c>
       <c r="G19">
-        <v>37.47733140500161</v>
+        <v>33.71406472979759</v>
       </c>
       <c r="H19">
-        <v>3.224431421139547</v>
+        <v>3.179247984557088</v>
       </c>
       <c r="I19">
-        <v>3.578557928701937</v>
+        <v>3.507564921133197</v>
       </c>
       <c r="J19">
-        <v>11.71267460563076</v>
+        <v>11.3740420105913</v>
       </c>
       <c r="K19">
-        <v>20.58618708229625</v>
+        <v>18.5128567815837</v>
       </c>
       <c r="L19">
-        <v>6.834723310808259</v>
+        <v>15.12083286858838</v>
       </c>
       <c r="M19">
-        <v>24.36431379837733</v>
+        <v>12.73875750233496</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.762018636273498</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>23.56016215584606</v>
       </c>
       <c r="P19">
-        <v>12.34193928701541</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.59183622422021</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.871142170559755</v>
+        <v>1.900029917728594</v>
       </c>
       <c r="D20">
-        <v>7.585435423869106</v>
+        <v>8.064006841829464</v>
       </c>
       <c r="E20">
-        <v>13.08102752800672</v>
+        <v>13.24112687067595</v>
       </c>
       <c r="F20">
-        <v>32.71398644736779</v>
+        <v>30.45019092834751</v>
       </c>
       <c r="G20">
-        <v>40.89899401272811</v>
+        <v>36.947249557421</v>
       </c>
       <c r="H20">
-        <v>2.402460702096452</v>
+        <v>2.310595954775959</v>
       </c>
       <c r="I20">
-        <v>3.743093264047737</v>
+        <v>3.641672767269361</v>
       </c>
       <c r="J20">
-        <v>12.3615176611425</v>
+        <v>11.77874140419759</v>
       </c>
       <c r="K20">
-        <v>21.9522726066531</v>
+        <v>19.57509956028565</v>
       </c>
       <c r="L20">
-        <v>8.041461561406079</v>
+        <v>15.81060007935285</v>
       </c>
       <c r="M20">
-        <v>25.51133885153598</v>
+        <v>13.69117587406194</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.949238137462435</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>24.59110157855197</v>
       </c>
       <c r="P20">
-        <v>12.12101100546903</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.37873046940502</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.138281081826158</v>
+        <v>2.16909195733686</v>
       </c>
       <c r="D21">
-        <v>8.020837483988521</v>
+        <v>8.629560180626116</v>
       </c>
       <c r="E21">
-        <v>13.91474189496137</v>
+        <v>14.11041424154162</v>
       </c>
       <c r="F21">
-        <v>34.20399730698374</v>
+        <v>31.27961644597795</v>
       </c>
       <c r="G21">
-        <v>42.95447022280725</v>
+        <v>40.23542072268473</v>
       </c>
       <c r="H21">
-        <v>2.751596431145576</v>
+        <v>2.616847672578268</v>
       </c>
       <c r="I21">
-        <v>4.033868945799435</v>
+        <v>3.870503485284855</v>
       </c>
       <c r="J21">
-        <v>12.67728395184246</v>
+        <v>10.94989446722667</v>
       </c>
       <c r="K21">
-        <v>22.80583006318925</v>
+        <v>19.90143261312549</v>
       </c>
       <c r="L21">
-        <v>8.42730508763459</v>
+        <v>15.78090753697674</v>
       </c>
       <c r="M21">
-        <v>27.12753504359543</v>
+        <v>14.30236204059245</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.301667158430428</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>25.94387713952725</v>
       </c>
       <c r="P21">
-        <v>11.96581640842519</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.33922434784024</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.351020607279134</v>
+        <v>2.371264501075477</v>
       </c>
       <c r="D22">
-        <v>8.247148329741595</v>
+        <v>8.941873775754685</v>
       </c>
       <c r="E22">
-        <v>14.32777491577407</v>
+        <v>14.54720806960252</v>
       </c>
       <c r="F22">
-        <v>35.08916314278731</v>
+        <v>31.72367840017475</v>
       </c>
       <c r="G22">
-        <v>44.20685264306938</v>
+        <v>42.38532001386323</v>
       </c>
       <c r="H22">
-        <v>2.968244466787734</v>
+        <v>2.806073222343439</v>
       </c>
       <c r="I22">
-        <v>4.216073268015061</v>
+        <v>4.011828813374083</v>
       </c>
       <c r="J22">
-        <v>12.8719481138651</v>
+        <v>10.36566633699629</v>
       </c>
       <c r="K22">
-        <v>23.3425776607218</v>
+        <v>20.08761496977438</v>
       </c>
       <c r="L22">
-        <v>8.618291031502382</v>
+        <v>15.74218915516286</v>
       </c>
       <c r="M22">
-        <v>28.12189260310807</v>
+        <v>14.680679613134</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.471120708421699</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>26.76583415458526</v>
       </c>
       <c r="P22">
-        <v>11.87063363463978</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.32777866302454</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.272855588782097</v>
+        <v>2.274852882042365</v>
       </c>
       <c r="D23">
-        <v>8.119503434615758</v>
+        <v>8.758362990760183</v>
       </c>
       <c r="E23">
-        <v>14.10605849332917</v>
+        <v>14.30888217859037</v>
       </c>
       <c r="F23">
-        <v>34.65451675265302</v>
+        <v>31.56882138547207</v>
       </c>
       <c r="G23">
-        <v>43.60501902064822</v>
+        <v>41.121639111825</v>
       </c>
       <c r="H23">
-        <v>2.854428988132516</v>
+        <v>2.707875846675615</v>
       </c>
       <c r="I23">
-        <v>4.11804696974237</v>
+        <v>3.935301334709114</v>
       </c>
       <c r="J23">
-        <v>12.78139486085741</v>
+        <v>10.7993270869531</v>
       </c>
       <c r="K23">
-        <v>23.09559127316478</v>
+        <v>20.05577781535396</v>
       </c>
       <c r="L23">
-        <v>8.518284412701696</v>
+        <v>15.81038436258943</v>
       </c>
       <c r="M23">
-        <v>27.60968346642494</v>
+        <v>14.53282223274515</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.384032186305694</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>26.36255221328247</v>
       </c>
       <c r="P23">
-        <v>11.91736454223114</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.32212404551315</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.906010152190887</v>
+        <v>1.913487234631763</v>
       </c>
       <c r="D24">
-        <v>7.633089168189809</v>
+        <v>8.113966645687718</v>
       </c>
       <c r="E24">
-        <v>13.24229442845128</v>
+        <v>13.40392891101915</v>
       </c>
       <c r="F24">
-        <v>32.92362568169357</v>
+        <v>30.64937705195258</v>
       </c>
       <c r="G24">
-        <v>41.18247097579821</v>
+        <v>37.1952816016051</v>
       </c>
       <c r="H24">
-        <v>2.4131477461422</v>
+        <v>2.320482555777987</v>
       </c>
       <c r="I24">
-        <v>3.742261499568138</v>
+        <v>3.638136721313687</v>
       </c>
       <c r="J24">
-        <v>12.42057028135628</v>
+        <v>11.83989255414151</v>
       </c>
       <c r="K24">
-        <v>22.0852446611736</v>
+        <v>19.69453572580245</v>
       </c>
       <c r="L24">
-        <v>8.12717792961851</v>
+        <v>15.90112913015808</v>
       </c>
       <c r="M24">
-        <v>25.55687098041589</v>
+        <v>13.78073707203803</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.034350393755952</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>24.63350611635751</v>
       </c>
       <c r="P24">
-        <v>12.10540325451785</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.3590326500251</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.474871980513989</v>
+        <v>1.592074898143537</v>
       </c>
       <c r="D25">
-        <v>7.077044164354899</v>
+        <v>7.497345804614734</v>
       </c>
       <c r="E25">
-        <v>12.25111783143689</v>
+        <v>12.41012937555978</v>
       </c>
       <c r="F25">
-        <v>31.00664481895381</v>
+        <v>29.09767210597091</v>
       </c>
       <c r="G25">
-        <v>38.49224768574525</v>
+        <v>34.89164404169664</v>
       </c>
       <c r="H25">
-        <v>1.919081642476699</v>
+        <v>1.869781475201679</v>
       </c>
       <c r="I25">
-        <v>3.324085507540535</v>
+        <v>3.290822918248169</v>
       </c>
       <c r="J25">
-        <v>12.04043387303956</v>
+        <v>11.64791190553628</v>
       </c>
       <c r="K25">
-        <v>20.97269837083062</v>
+        <v>18.94088127532267</v>
       </c>
       <c r="L25">
-        <v>7.684516429702979</v>
+        <v>15.73425921491098</v>
       </c>
       <c r="M25">
-        <v>23.14768671116405</v>
+        <v>12.68930510383416</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.619101916702924</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>22.37970913479454</v>
       </c>
       <c r="P25">
-        <v>12.31747078571409</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.48127066967813</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
